--- a/Notes/SBM5_PointerTableDocumentation.xlsx
+++ b/Notes/SBM5_PointerTableDocumentation.xlsx
@@ -2,24 +2,59 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GoogleDrive\SBM5\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Home\ROM Hacking\SBM5_SFC_EN\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29952" windowHeight="10368"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29955" windowHeight="10365" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SBM5_PointerTableDocumentation" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphics Pointer Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Menu Text Pointer Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Daniel Burgess</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DackR:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This is the location of the Pointer. PC Offset.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="1132">
   <si>
     <t>Pointer Offset</t>
   </si>
@@ -3412,13 +3447,16 @@
   </si>
   <si>
     <t>Battle Mode Menu Title - Single? Tag? Move to DF4B82 (1F4B82 PC)</t>
+  </si>
+  <si>
+    <t>11A000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3552,6 +3590,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4229,26 +4280,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4271,7 +4322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4291,7 +4342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4311,7 +4362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4331,7 +4382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -4351,7 +4402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4371,7 +4422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -4391,7 +4442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -4411,7 +4462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -4431,7 +4482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -4451,7 +4502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -4471,7 +4522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -4491,7 +4542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -4511,7 +4562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -4531,7 +4582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -4551,7 +4602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -4571,7 +4622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -4591,7 +4642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -4611,7 +4662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -4631,7 +4682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -4651,7 +4702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -4671,7 +4722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,7 +4742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
@@ -4711,7 +4762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
@@ -4731,7 +4782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>86</v>
       </c>
@@ -4751,7 +4802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -4771,7 +4822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
@@ -4791,7 +4842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
@@ -4811,7 +4862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>100</v>
       </c>
@@ -4831,7 +4882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -4851,7 +4902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
@@ -4871,7 +4922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
@@ -4891,7 +4942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>114</v>
       </c>
@@ -4911,7 +4962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>118</v>
       </c>
@@ -4931,7 +4982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>121</v>
       </c>
@@ -4951,7 +5002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>125</v>
       </c>
@@ -4971,7 +5022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>128</v>
       </c>
@@ -4991,7 +5042,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>134</v>
       </c>
@@ -5014,7 +5065,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>138</v>
       </c>
@@ -5034,7 +5085,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>141</v>
       </c>
@@ -5054,7 +5105,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>145</v>
       </c>
@@ -5074,7 +5125,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>148</v>
       </c>
@@ -5094,7 +5145,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>151</v>
       </c>
@@ -5114,7 +5165,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>155</v>
       </c>
@@ -5134,7 +5185,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>158</v>
       </c>
@@ -5154,7 +5205,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>162</v>
       </c>
@@ -5174,7 +5225,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>166</v>
       </c>
@@ -5194,7 +5245,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
@@ -5214,7 +5265,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>173</v>
       </c>
@@ -5234,7 +5285,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>177</v>
       </c>
@@ -5254,7 +5305,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>181</v>
       </c>
@@ -5274,7 +5325,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>185</v>
       </c>
@@ -5294,7 +5345,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>189</v>
       </c>
@@ -5314,7 +5365,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>192</v>
       </c>
@@ -5334,7 +5385,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>195</v>
       </c>
@@ -5354,7 +5405,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -5374,7 +5425,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>203</v>
       </c>
@@ -5394,7 +5445,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>207</v>
       </c>
@@ -5414,7 +5465,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>210</v>
       </c>
@@ -5434,7 +5485,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>214</v>
       </c>
@@ -5454,7 +5505,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>217</v>
       </c>
@@ -5474,7 +5525,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>221</v>
       </c>
@@ -5494,7 +5545,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>225</v>
       </c>
@@ -5514,7 +5565,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>229</v>
       </c>
@@ -5534,7 +5585,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>233</v>
       </c>
@@ -5554,7 +5605,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>237</v>
       </c>
@@ -5574,7 +5625,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>241</v>
       </c>
@@ -5594,7 +5645,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>245</v>
       </c>
@@ -5614,7 +5665,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>249</v>
       </c>
@@ -5634,7 +5685,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>253</v>
       </c>
@@ -5654,7 +5705,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>257</v>
       </c>
@@ -5674,7 +5725,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>260</v>
       </c>
@@ -5694,7 +5745,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>263</v>
       </c>
@@ -5714,7 +5765,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>266</v>
       </c>
@@ -5734,7 +5785,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>269</v>
       </c>
@@ -5754,7 +5805,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>272</v>
       </c>
@@ -5774,7 +5825,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>275</v>
       </c>
@@ -5794,7 +5845,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>278</v>
       </c>
@@ -5814,7 +5865,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>281</v>
       </c>
@@ -5834,7 +5885,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>284</v>
       </c>
@@ -5854,7 +5905,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>288</v>
       </c>
@@ -5874,7 +5925,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>291</v>
       </c>
@@ -5894,7 +5945,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>295</v>
       </c>
@@ -5914,7 +5965,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>298</v>
       </c>
@@ -5934,7 +5985,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>301</v>
       </c>
@@ -5954,7 +6005,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>305</v>
       </c>
@@ -5974,7 +6025,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>308</v>
       </c>
@@ -5994,7 +6045,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>311</v>
       </c>
@@ -6017,7 +6068,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>314</v>
       </c>
@@ -6040,7 +6091,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>318</v>
       </c>
@@ -6063,7 +6114,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>321</v>
       </c>
@@ -6086,7 +6137,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>324</v>
       </c>
@@ -6109,7 +6160,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>328</v>
       </c>
@@ -6132,7 +6183,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>332</v>
       </c>
@@ -6155,7 +6206,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>335</v>
       </c>
@@ -6178,7 +6229,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>340</v>
       </c>
@@ -6201,7 +6252,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>343</v>
       </c>
@@ -6224,7 +6275,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>348</v>
       </c>
@@ -6247,7 +6298,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>353</v>
       </c>
@@ -6270,7 +6321,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>357</v>
       </c>
@@ -6293,7 +6344,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>361</v>
       </c>
@@ -6316,7 +6367,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>365</v>
       </c>
@@ -6339,7 +6390,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>368</v>
       </c>
@@ -6362,7 +6413,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>372</v>
       </c>
@@ -6385,7 +6436,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>375</v>
       </c>
@@ -6408,7 +6459,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>378</v>
       </c>
@@ -6431,7 +6482,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>382</v>
       </c>
@@ -6454,7 +6505,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>385</v>
       </c>
@@ -6477,7 +6528,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>389</v>
       </c>
@@ -6500,7 +6551,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>393</v>
       </c>
@@ -6523,7 +6574,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>397</v>
       </c>
@@ -6546,7 +6597,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>401</v>
       </c>
@@ -6569,7 +6620,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>404</v>
       </c>
@@ -6592,7 +6643,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>408</v>
       </c>
@@ -6615,7 +6666,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>411</v>
       </c>
@@ -6638,7 +6689,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>414</v>
       </c>
@@ -6661,7 +6712,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>418</v>
       </c>
@@ -6684,7 +6735,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>421</v>
       </c>
@@ -6707,7 +6758,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>424</v>
       </c>
@@ -6730,7 +6781,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>427</v>
       </c>
@@ -6753,7 +6804,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>430</v>
       </c>
@@ -6776,7 +6827,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>433</v>
       </c>
@@ -6799,7 +6850,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>436</v>
       </c>
@@ -6822,7 +6873,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>439</v>
       </c>
@@ -6845,7 +6896,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>443</v>
       </c>
@@ -6868,7 +6919,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>446</v>
       </c>
@@ -6891,7 +6942,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>449</v>
       </c>
@@ -6914,7 +6965,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>453</v>
       </c>
@@ -6937,7 +6988,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>457</v>
       </c>
@@ -6960,7 +7011,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>461</v>
       </c>
@@ -6983,7 +7034,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>465</v>
       </c>
@@ -7006,7 +7057,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>468</v>
       </c>
@@ -7029,7 +7080,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>472</v>
       </c>
@@ -7052,7 +7103,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>476</v>
       </c>
@@ -7075,7 +7126,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>480</v>
       </c>
@@ -7098,7 +7149,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>484</v>
       </c>
@@ -7121,7 +7172,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>487</v>
       </c>
@@ -7144,7 +7195,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>490</v>
       </c>
@@ -7167,7 +7218,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>494</v>
       </c>
@@ -7190,7 +7241,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>498</v>
       </c>
@@ -7210,7 +7261,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>501</v>
       </c>
@@ -7230,7 +7281,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>504</v>
       </c>
@@ -7250,7 +7301,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>507</v>
       </c>
@@ -7270,7 +7321,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>510</v>
       </c>
@@ -7290,7 +7341,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>514</v>
       </c>
@@ -7310,7 +7361,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>518</v>
       </c>
@@ -7330,7 +7381,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>521</v>
       </c>
@@ -7350,7 +7401,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>524</v>
       </c>
@@ -7373,7 +7424,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>528</v>
       </c>
@@ -7396,7 +7447,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>531</v>
       </c>
@@ -7419,7 +7470,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>535</v>
       </c>
@@ -7442,7 +7493,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>538</v>
       </c>
@@ -7465,7 +7516,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>541</v>
       </c>
@@ -7488,7 +7539,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>544</v>
       </c>
@@ -7511,7 +7562,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>548</v>
       </c>
@@ -7534,7 +7585,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>552</v>
       </c>
@@ -7557,7 +7608,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>555</v>
       </c>
@@ -7580,7 +7631,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>559</v>
       </c>
@@ -7603,7 +7654,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>562</v>
       </c>
@@ -7626,7 +7677,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>565</v>
       </c>
@@ -7649,7 +7700,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>568</v>
       </c>
@@ -7672,7 +7723,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>572</v>
       </c>
@@ -7695,7 +7746,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>575</v>
       </c>
@@ -7718,7 +7769,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>578</v>
       </c>
@@ -7741,7 +7792,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>582</v>
       </c>
@@ -7764,7 +7815,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>585</v>
       </c>
@@ -7787,7 +7838,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>589</v>
       </c>
@@ -7810,7 +7861,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>593</v>
       </c>
@@ -7833,7 +7884,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>597</v>
       </c>
@@ -7856,7 +7907,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>600</v>
       </c>
@@ -7879,7 +7930,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>603</v>
       </c>
@@ -7902,7 +7953,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>606</v>
       </c>
@@ -7925,7 +7976,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>610</v>
       </c>
@@ -7948,7 +7999,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>614</v>
       </c>
@@ -7971,7 +8022,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>617</v>
       </c>
@@ -7994,7 +8045,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>621</v>
       </c>
@@ -8017,7 +8068,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>625</v>
       </c>
@@ -8040,7 +8091,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>628</v>
       </c>
@@ -8063,7 +8114,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>631</v>
       </c>
@@ -8086,7 +8137,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>634</v>
       </c>
@@ -8109,7 +8160,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>638</v>
       </c>
@@ -8132,7 +8183,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>641</v>
       </c>
@@ -8155,7 +8206,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>645</v>
       </c>
@@ -8178,7 +8229,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>648</v>
       </c>
@@ -8201,7 +8252,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>651</v>
       </c>
@@ -8224,7 +8275,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>655</v>
       </c>
@@ -8247,7 +8298,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>658</v>
       </c>
@@ -8270,7 +8321,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>662</v>
       </c>
@@ -8293,7 +8344,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>665</v>
       </c>
@@ -8316,7 +8367,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>668</v>
       </c>
@@ -8339,7 +8390,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>671</v>
       </c>
@@ -8362,7 +8413,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>675</v>
       </c>
@@ -8385,7 +8436,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>678</v>
       </c>
@@ -8408,7 +8459,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>681</v>
       </c>
@@ -8431,7 +8482,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>684</v>
       </c>
@@ -8454,7 +8505,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>687</v>
       </c>
@@ -8477,7 +8528,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>691</v>
       </c>
@@ -8500,7 +8551,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>694</v>
       </c>
@@ -8523,7 +8574,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>697</v>
       </c>
@@ -8546,7 +8597,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>701</v>
       </c>
@@ -8569,7 +8620,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>704</v>
       </c>
@@ -8592,7 +8643,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>707</v>
       </c>
@@ -8615,7 +8666,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>710</v>
       </c>
@@ -8638,7 +8689,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>713</v>
       </c>
@@ -8661,7 +8712,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>716</v>
       </c>
@@ -8684,7 +8735,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>719</v>
       </c>
@@ -8707,7 +8758,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>723</v>
       </c>
@@ -8730,7 +8781,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>727</v>
       </c>
@@ -8753,7 +8804,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>731</v>
       </c>
@@ -8776,7 +8827,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>734</v>
       </c>
@@ -8799,7 +8850,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>738</v>
       </c>
@@ -8822,7 +8873,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>741</v>
       </c>
@@ -8845,7 +8896,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>744</v>
       </c>
@@ -8868,7 +8919,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>748</v>
       </c>
@@ -8891,7 +8942,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>751</v>
       </c>
@@ -8914,7 +8965,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>754</v>
       </c>
@@ -8937,7 +8988,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>757</v>
       </c>
@@ -8960,7 +9011,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>761</v>
       </c>
@@ -8983,7 +9034,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>764</v>
       </c>
@@ -9006,7 +9057,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>767</v>
       </c>
@@ -9029,7 +9080,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>770</v>
       </c>
@@ -9052,7 +9103,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>774</v>
       </c>
@@ -9075,7 +9126,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>777</v>
       </c>
@@ -9098,7 +9149,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>780</v>
       </c>
@@ -9121,7 +9172,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>784</v>
       </c>
@@ -9144,7 +9195,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>788</v>
       </c>
@@ -9164,7 +9215,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>791</v>
       </c>
@@ -9184,7 +9235,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>794</v>
       </c>
@@ -9204,7 +9255,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>798</v>
       </c>
@@ -9224,7 +9275,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>801</v>
       </c>
@@ -9244,7 +9295,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>805</v>
       </c>
@@ -9264,7 +9315,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>809</v>
       </c>
@@ -9284,7 +9335,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>812</v>
       </c>
@@ -9304,7 +9355,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>815</v>
       </c>
@@ -9324,7 +9375,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>819</v>
       </c>
@@ -9344,7 +9395,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>823</v>
       </c>
@@ -9364,7 +9415,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>826</v>
       </c>
@@ -9384,7 +9435,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>830</v>
       </c>
@@ -9404,7 +9455,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>834</v>
       </c>
@@ -9424,7 +9475,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>838</v>
       </c>
@@ -9444,7 +9495,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>842</v>
       </c>
@@ -9464,7 +9515,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>845</v>
       </c>
@@ -9484,7 +9535,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>848</v>
       </c>
@@ -9504,7 +9555,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>852</v>
       </c>
@@ -9524,7 +9575,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>855</v>
       </c>
@@ -9544,7 +9595,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>859</v>
       </c>
@@ -9564,7 +9615,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>863</v>
       </c>
@@ -9587,7 +9638,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>867</v>
       </c>
@@ -9607,7 +9658,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>870</v>
       </c>
@@ -9630,7 +9681,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>874</v>
       </c>
@@ -9653,7 +9704,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>878</v>
       </c>
@@ -9673,7 +9724,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>882</v>
       </c>
@@ -9693,7 +9744,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>886</v>
       </c>
@@ -9713,7 +9764,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>889</v>
       </c>
@@ -9733,7 +9784,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>893</v>
       </c>
@@ -9753,7 +9804,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>896</v>
       </c>
@@ -9773,7 +9824,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>900</v>
       </c>
@@ -9793,7 +9844,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>903</v>
       </c>
@@ -9813,7 +9864,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>907</v>
       </c>
@@ -9833,7 +9884,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>910</v>
       </c>
@@ -9853,7 +9904,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>913</v>
       </c>
@@ -9873,7 +9924,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>916</v>
       </c>
@@ -9893,7 +9944,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>919</v>
       </c>
@@ -9913,7 +9964,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>922</v>
       </c>
@@ -9933,7 +9984,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>925</v>
       </c>
@@ -9953,7 +10004,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>928</v>
       </c>
@@ -9973,7 +10024,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>931</v>
       </c>
@@ -9993,7 +10044,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>934</v>
       </c>
@@ -10013,7 +10064,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>937</v>
       </c>
@@ -10033,7 +10084,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>940</v>
       </c>
@@ -10053,7 +10104,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>943</v>
       </c>
@@ -10073,7 +10124,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>946</v>
       </c>
@@ -10093,7 +10144,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>949</v>
       </c>
@@ -10113,7 +10164,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>952</v>
       </c>
@@ -10133,7 +10184,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>955</v>
       </c>
@@ -10153,7 +10204,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>958</v>
       </c>
@@ -10173,7 +10224,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>961</v>
       </c>
@@ -10193,7 +10244,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>964</v>
       </c>
@@ -10213,7 +10264,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>967</v>
       </c>
@@ -10233,7 +10284,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>970</v>
       </c>
@@ -10253,7 +10304,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>973</v>
       </c>
@@ -10273,7 +10324,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>976</v>
       </c>
@@ -10293,7 +10344,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>979</v>
       </c>
@@ -10313,7 +10364,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>982</v>
       </c>
@@ -10333,7 +10384,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>986</v>
       </c>
@@ -10353,7 +10404,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>989</v>
       </c>
@@ -10373,7 +10424,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>992</v>
       </c>
@@ -10393,7 +10444,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>995</v>
       </c>
@@ -10413,7 +10464,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>998</v>
       </c>
@@ -10433,7 +10484,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>1001</v>
       </c>
@@ -10453,7 +10504,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>1004</v>
       </c>
@@ -10473,7 +10524,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>1007</v>
       </c>
@@ -10499,5 +10550,58 @@
   <ignoredErrors>
     <ignoredError sqref="C2:E2" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Notes/SBM5_PointerTableDocumentation.xlsx
+++ b/Notes/SBM5_PointerTableDocumentation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29955" windowHeight="10365" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29955" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics Pointer Table" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="1133">
   <si>
     <t>Pointer Offset</t>
   </si>
@@ -3450,6 +3450,9 @@
   </si>
   <si>
     <t>11A000</t>
+  </si>
+  <si>
+    <t>Type 85 is uncompressed, so these sections need to be re-extracted.</t>
   </si>
 </sst>
 </file>
@@ -4283,10 +4286,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4341,6 +4344,9 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -10558,7 +10564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Notes/SBM5_PointerTableDocumentation.xlsx
+++ b/Notes/SBM5_PointerTableDocumentation.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29955" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29955" windowHeight="10365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics Pointer Table" sheetId="1" r:id="rId1"/>
     <sheet name="Menu Text Pointer Table" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="ptr_docs" localSheetId="1">'Menu Text Pointer Table'!#REF!</definedName>
+    <definedName name="ptr_docs_1" localSheetId="1">'Menu Text Pointer Table'!$A$1:$H$249</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -53,8 +57,26 @@
 </comments>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="ptr_docs1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="F:\OneDrive\Home\ROM Hacking\SBM5_SFC_EN\Notes\ptr_docs.csv" tab="0" comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="2379">
   <si>
     <t>Pointer Offset</t>
   </si>
@@ -3453,6 +3475,3744 @@
   </si>
   <si>
     <t>Type 85 is uncompressed, so these sections need to be re-extracted.</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>PC Pointer</t>
+  </si>
+  <si>
+    <t>HIROM Pointer</t>
+  </si>
+  <si>
+    <t>D1A000</t>
+  </si>
+  <si>
+    <t>11A1EC</t>
+  </si>
+  <si>
+    <t>11A002</t>
+  </si>
+  <si>
+    <t>D1A002</t>
+  </si>
+  <si>
+    <t>11A1FA</t>
+  </si>
+  <si>
+    <t>11A004</t>
+  </si>
+  <si>
+    <t>D1A004</t>
+  </si>
+  <si>
+    <t>11A208</t>
+  </si>
+  <si>
+    <t>11A006</t>
+  </si>
+  <si>
+    <t>D1A006</t>
+  </si>
+  <si>
+    <t>11A216</t>
+  </si>
+  <si>
+    <t>11A008</t>
+  </si>
+  <si>
+    <t>D1A008</t>
+  </si>
+  <si>
+    <t>11A224</t>
+  </si>
+  <si>
+    <t>11A00A</t>
+  </si>
+  <si>
+    <t>D1A00A</t>
+  </si>
+  <si>
+    <t>11A232</t>
+  </si>
+  <si>
+    <t>11A00C</t>
+  </si>
+  <si>
+    <t>D1A00C</t>
+  </si>
+  <si>
+    <t>11A240</t>
+  </si>
+  <si>
+    <t>11A00E</t>
+  </si>
+  <si>
+    <t>D1A00E</t>
+  </si>
+  <si>
+    <t>11A24E</t>
+  </si>
+  <si>
+    <t>11A010</t>
+  </si>
+  <si>
+    <t>D1A010</t>
+  </si>
+  <si>
+    <t>11A25C</t>
+  </si>
+  <si>
+    <t>11A012</t>
+  </si>
+  <si>
+    <t>D1A012</t>
+  </si>
+  <si>
+    <t>11A26A</t>
+  </si>
+  <si>
+    <t>11A014</t>
+  </si>
+  <si>
+    <t>D1A014</t>
+  </si>
+  <si>
+    <t>11A278</t>
+  </si>
+  <si>
+    <t>11A016</t>
+  </si>
+  <si>
+    <t>D1A016</t>
+  </si>
+  <si>
+    <t>11A286</t>
+  </si>
+  <si>
+    <t>11A018</t>
+  </si>
+  <si>
+    <t>D1A018</t>
+  </si>
+  <si>
+    <t>11A294</t>
+  </si>
+  <si>
+    <t>11A01A</t>
+  </si>
+  <si>
+    <t>D1A01A</t>
+  </si>
+  <si>
+    <t>11A2A2</t>
+  </si>
+  <si>
+    <t>11A01C</t>
+  </si>
+  <si>
+    <t>D1A01C</t>
+  </si>
+  <si>
+    <t>11A2B0</t>
+  </si>
+  <si>
+    <t>11A01E</t>
+  </si>
+  <si>
+    <t>D1A01E</t>
+  </si>
+  <si>
+    <t>11A2BE</t>
+  </si>
+  <si>
+    <t>11A020</t>
+  </si>
+  <si>
+    <t>D1A020</t>
+  </si>
+  <si>
+    <t>11A2CC</t>
+  </si>
+  <si>
+    <t>11A022</t>
+  </si>
+  <si>
+    <t>D1A022</t>
+  </si>
+  <si>
+    <t>11A2DA</t>
+  </si>
+  <si>
+    <t>11A024</t>
+  </si>
+  <si>
+    <t>D1A024</t>
+  </si>
+  <si>
+    <t>11A2E8</t>
+  </si>
+  <si>
+    <t>11A026</t>
+  </si>
+  <si>
+    <t>D1A026</t>
+  </si>
+  <si>
+    <t>11A2F6</t>
+  </si>
+  <si>
+    <t>11A028</t>
+  </si>
+  <si>
+    <t>D1A028</t>
+  </si>
+  <si>
+    <t>11A304</t>
+  </si>
+  <si>
+    <t>11A02A</t>
+  </si>
+  <si>
+    <t>D1A02A</t>
+  </si>
+  <si>
+    <t>11A315</t>
+  </si>
+  <si>
+    <t>11A02C</t>
+  </si>
+  <si>
+    <t>D1A02C</t>
+  </si>
+  <si>
+    <t>11A326</t>
+  </si>
+  <si>
+    <t>11A02E</t>
+  </si>
+  <si>
+    <t>D1A02E</t>
+  </si>
+  <si>
+    <t>11A337</t>
+  </si>
+  <si>
+    <t>11A030</t>
+  </si>
+  <si>
+    <t>D1A030</t>
+  </si>
+  <si>
+    <t>11A348</t>
+  </si>
+  <si>
+    <t>11A032</t>
+  </si>
+  <si>
+    <t>D1A032</t>
+  </si>
+  <si>
+    <t>11A359</t>
+  </si>
+  <si>
+    <t>11A034</t>
+  </si>
+  <si>
+    <t>D1A034</t>
+  </si>
+  <si>
+    <t>11A36A</t>
+  </si>
+  <si>
+    <t>11A036</t>
+  </si>
+  <si>
+    <t>D1A036</t>
+  </si>
+  <si>
+    <t>11A37B</t>
+  </si>
+  <si>
+    <t>11A038</t>
+  </si>
+  <si>
+    <t>D1A038</t>
+  </si>
+  <si>
+    <t>11A38C</t>
+  </si>
+  <si>
+    <t>11A03A</t>
+  </si>
+  <si>
+    <t>D1A03A</t>
+  </si>
+  <si>
+    <t>11A39D</t>
+  </si>
+  <si>
+    <t>11A03C</t>
+  </si>
+  <si>
+    <t>D1A03C</t>
+  </si>
+  <si>
+    <t>11A3AE</t>
+  </si>
+  <si>
+    <t>11A03E</t>
+  </si>
+  <si>
+    <t>D1A03E</t>
+  </si>
+  <si>
+    <t>11A3C4</t>
+  </si>
+  <si>
+    <t>11A040</t>
+  </si>
+  <si>
+    <t>D1A040</t>
+  </si>
+  <si>
+    <t>11A3DA</t>
+  </si>
+  <si>
+    <t>11A042</t>
+  </si>
+  <si>
+    <t>D1A042</t>
+  </si>
+  <si>
+    <t>11A3F0</t>
+  </si>
+  <si>
+    <t>11A044</t>
+  </si>
+  <si>
+    <t>D1A044</t>
+  </si>
+  <si>
+    <t>11A406</t>
+  </si>
+  <si>
+    <t>11A046</t>
+  </si>
+  <si>
+    <t>D1A046</t>
+  </si>
+  <si>
+    <t>11A41C</t>
+  </si>
+  <si>
+    <t>11A048</t>
+  </si>
+  <si>
+    <t>D1A048</t>
+  </si>
+  <si>
+    <t>11A432</t>
+  </si>
+  <si>
+    <t>11A04A</t>
+  </si>
+  <si>
+    <t>D1A04A</t>
+  </si>
+  <si>
+    <t>11A448</t>
+  </si>
+  <si>
+    <t>11A04C</t>
+  </si>
+  <si>
+    <t>D1A04C</t>
+  </si>
+  <si>
+    <t>11A45E</t>
+  </si>
+  <si>
+    <t>11A04E</t>
+  </si>
+  <si>
+    <t>D1A04E</t>
+  </si>
+  <si>
+    <t>11A474</t>
+  </si>
+  <si>
+    <t>11A050</t>
+  </si>
+  <si>
+    <t>D1A050</t>
+  </si>
+  <si>
+    <t>11A48A</t>
+  </si>
+  <si>
+    <t>11A052</t>
+  </si>
+  <si>
+    <t>D1A052</t>
+  </si>
+  <si>
+    <t>11A49D</t>
+  </si>
+  <si>
+    <t>11A054</t>
+  </si>
+  <si>
+    <t>D1A054</t>
+  </si>
+  <si>
+    <t>11A4B0</t>
+  </si>
+  <si>
+    <t>11A056</t>
+  </si>
+  <si>
+    <t>D1A056</t>
+  </si>
+  <si>
+    <t>11A4C3</t>
+  </si>
+  <si>
+    <t>11A058</t>
+  </si>
+  <si>
+    <t>D1A058</t>
+  </si>
+  <si>
+    <t>11A4D6</t>
+  </si>
+  <si>
+    <t>11A05A</t>
+  </si>
+  <si>
+    <t>D1A05A</t>
+  </si>
+  <si>
+    <t>11A4E9</t>
+  </si>
+  <si>
+    <t>11A05C</t>
+  </si>
+  <si>
+    <t>D1A05C</t>
+  </si>
+  <si>
+    <t>11A4FC</t>
+  </si>
+  <si>
+    <t>11A05E</t>
+  </si>
+  <si>
+    <t>D1A05E</t>
+  </si>
+  <si>
+    <t>11A50F</t>
+  </si>
+  <si>
+    <t>11A060</t>
+  </si>
+  <si>
+    <t>D1A060</t>
+  </si>
+  <si>
+    <t>11A522</t>
+  </si>
+  <si>
+    <t>11A062</t>
+  </si>
+  <si>
+    <t>D1A062</t>
+  </si>
+  <si>
+    <t>11A535</t>
+  </si>
+  <si>
+    <t>11A064</t>
+  </si>
+  <si>
+    <t>D1A064</t>
+  </si>
+  <si>
+    <t>11A548</t>
+  </si>
+  <si>
+    <t>11A066</t>
+  </si>
+  <si>
+    <t>D1A066</t>
+  </si>
+  <si>
+    <t>11A559</t>
+  </si>
+  <si>
+    <t>11A068</t>
+  </si>
+  <si>
+    <t>D1A068</t>
+  </si>
+  <si>
+    <t>11A56A</t>
+  </si>
+  <si>
+    <t>11A06A</t>
+  </si>
+  <si>
+    <t>D1A06A</t>
+  </si>
+  <si>
+    <t>11A57B</t>
+  </si>
+  <si>
+    <t>11A06C</t>
+  </si>
+  <si>
+    <t>D1A06C</t>
+  </si>
+  <si>
+    <t>11A58C</t>
+  </si>
+  <si>
+    <t>11A06E</t>
+  </si>
+  <si>
+    <t>D1A06E</t>
+  </si>
+  <si>
+    <t>11A59D</t>
+  </si>
+  <si>
+    <t>11A070</t>
+  </si>
+  <si>
+    <t>D1A070</t>
+  </si>
+  <si>
+    <t>11A5AE</t>
+  </si>
+  <si>
+    <t>11A072</t>
+  </si>
+  <si>
+    <t>D1A072</t>
+  </si>
+  <si>
+    <t>11A5BF</t>
+  </si>
+  <si>
+    <t>11A074</t>
+  </si>
+  <si>
+    <t>D1A074</t>
+  </si>
+  <si>
+    <t>11A5D0</t>
+  </si>
+  <si>
+    <t>11A076</t>
+  </si>
+  <si>
+    <t>D1A076</t>
+  </si>
+  <si>
+    <t>11A5E1</t>
+  </si>
+  <si>
+    <t>11A078</t>
+  </si>
+  <si>
+    <t>D1A078</t>
+  </si>
+  <si>
+    <t>11A5F2</t>
+  </si>
+  <si>
+    <t>11A07A</t>
+  </si>
+  <si>
+    <t>D1A07A</t>
+  </si>
+  <si>
+    <t>11A616</t>
+  </si>
+  <si>
+    <t>11A07C</t>
+  </si>
+  <si>
+    <t>D1A07C</t>
+  </si>
+  <si>
+    <t>11A63A</t>
+  </si>
+  <si>
+    <t>11A07E</t>
+  </si>
+  <si>
+    <t>D1A07E</t>
+  </si>
+  <si>
+    <t>11A65E</t>
+  </si>
+  <si>
+    <t>11A080</t>
+  </si>
+  <si>
+    <t>D1A080</t>
+  </si>
+  <si>
+    <t>11A682</t>
+  </si>
+  <si>
+    <t>11A082</t>
+  </si>
+  <si>
+    <t>D1A082</t>
+  </si>
+  <si>
+    <t>11A6A6</t>
+  </si>
+  <si>
+    <t>11A084</t>
+  </si>
+  <si>
+    <t>D1A084</t>
+  </si>
+  <si>
+    <t>11A6CA</t>
+  </si>
+  <si>
+    <t>11A086</t>
+  </si>
+  <si>
+    <t>D1A086</t>
+  </si>
+  <si>
+    <t>11A6EE</t>
+  </si>
+  <si>
+    <t>11A088</t>
+  </si>
+  <si>
+    <t>D1A088</t>
+  </si>
+  <si>
+    <t>11A712</t>
+  </si>
+  <si>
+    <t>11A08A</t>
+  </si>
+  <si>
+    <t>D1A08A</t>
+  </si>
+  <si>
+    <t>11A736</t>
+  </si>
+  <si>
+    <t>11A08C</t>
+  </si>
+  <si>
+    <t>D1A08C</t>
+  </si>
+  <si>
+    <t>11A75A</t>
+  </si>
+  <si>
+    <t>11A08E</t>
+  </si>
+  <si>
+    <t>D1A08E</t>
+  </si>
+  <si>
+    <t>11A76B</t>
+  </si>
+  <si>
+    <t>11A090</t>
+  </si>
+  <si>
+    <t>D1A090</t>
+  </si>
+  <si>
+    <t>11A77C</t>
+  </si>
+  <si>
+    <t>11A092</t>
+  </si>
+  <si>
+    <t>D1A092</t>
+  </si>
+  <si>
+    <t>11A78D</t>
+  </si>
+  <si>
+    <t>11A094</t>
+  </si>
+  <si>
+    <t>D1A094</t>
+  </si>
+  <si>
+    <t>11A79E</t>
+  </si>
+  <si>
+    <t>11A096</t>
+  </si>
+  <si>
+    <t>D1A096</t>
+  </si>
+  <si>
+    <t>11A7AF</t>
+  </si>
+  <si>
+    <t>11A098</t>
+  </si>
+  <si>
+    <t>D1A098</t>
+  </si>
+  <si>
+    <t>11A7C0</t>
+  </si>
+  <si>
+    <t>11A09A</t>
+  </si>
+  <si>
+    <t>D1A09A</t>
+  </si>
+  <si>
+    <t>11A7D1</t>
+  </si>
+  <si>
+    <t>11A09C</t>
+  </si>
+  <si>
+    <t>D1A09C</t>
+  </si>
+  <si>
+    <t>11A7E2</t>
+  </si>
+  <si>
+    <t>11A09E</t>
+  </si>
+  <si>
+    <t>D1A09E</t>
+  </si>
+  <si>
+    <t>11A7F3</t>
+  </si>
+  <si>
+    <t>11A0A0</t>
+  </si>
+  <si>
+    <t>D1A0A0</t>
+  </si>
+  <si>
+    <t>11A804</t>
+  </si>
+  <si>
+    <t>11A0A2</t>
+  </si>
+  <si>
+    <t>D1A0A2</t>
+  </si>
+  <si>
+    <t>11A815</t>
+  </si>
+  <si>
+    <t>11A0A4</t>
+  </si>
+  <si>
+    <t>D1A0A4</t>
+  </si>
+  <si>
+    <t>11A826</t>
+  </si>
+  <si>
+    <t>11A0A6</t>
+  </si>
+  <si>
+    <t>D1A0A6</t>
+  </si>
+  <si>
+    <t>11A837</t>
+  </si>
+  <si>
+    <t>11A0A8</t>
+  </si>
+  <si>
+    <t>D1A0A8</t>
+  </si>
+  <si>
+    <t>11A848</t>
+  </si>
+  <si>
+    <t>11A0AA</t>
+  </si>
+  <si>
+    <t>D1A0AA</t>
+  </si>
+  <si>
+    <t>11A859</t>
+  </si>
+  <si>
+    <t>11A0AC</t>
+  </si>
+  <si>
+    <t>D1A0AC</t>
+  </si>
+  <si>
+    <t>11A86A</t>
+  </si>
+  <si>
+    <t>11A0AE</t>
+  </si>
+  <si>
+    <t>D1A0AE</t>
+  </si>
+  <si>
+    <t>11A87B</t>
+  </si>
+  <si>
+    <t>11A0B0</t>
+  </si>
+  <si>
+    <t>D1A0B0</t>
+  </si>
+  <si>
+    <t>11A88C</t>
+  </si>
+  <si>
+    <t>11A0B2</t>
+  </si>
+  <si>
+    <t>D1A0B2</t>
+  </si>
+  <si>
+    <t>11A89D</t>
+  </si>
+  <si>
+    <t>11A0B4</t>
+  </si>
+  <si>
+    <t>D1A0B4</t>
+  </si>
+  <si>
+    <t>11A8AE</t>
+  </si>
+  <si>
+    <t>11A0B6</t>
+  </si>
+  <si>
+    <t>D1A0B6</t>
+  </si>
+  <si>
+    <t>11A8BF</t>
+  </si>
+  <si>
+    <t>11A0B8</t>
+  </si>
+  <si>
+    <t>D1A0B8</t>
+  </si>
+  <si>
+    <t>11A8D0</t>
+  </si>
+  <si>
+    <t>11A0BA</t>
+  </si>
+  <si>
+    <t>D1A0BA</t>
+  </si>
+  <si>
+    <t>11A8E1</t>
+  </si>
+  <si>
+    <t>11A0BC</t>
+  </si>
+  <si>
+    <t>D1A0BC</t>
+  </si>
+  <si>
+    <t>11A8F2</t>
+  </si>
+  <si>
+    <t>11A0BE</t>
+  </si>
+  <si>
+    <t>D1A0BE</t>
+  </si>
+  <si>
+    <t>11A903</t>
+  </si>
+  <si>
+    <t>11A0C0</t>
+  </si>
+  <si>
+    <t>D1A0C0</t>
+  </si>
+  <si>
+    <t>11A914</t>
+  </si>
+  <si>
+    <t>11A0C2</t>
+  </si>
+  <si>
+    <t>D1A0C2</t>
+  </si>
+  <si>
+    <t>11A925</t>
+  </si>
+  <si>
+    <t>11A0C4</t>
+  </si>
+  <si>
+    <t>D1A0C4</t>
+  </si>
+  <si>
+    <t>11A936</t>
+  </si>
+  <si>
+    <t>11A0C6</t>
+  </si>
+  <si>
+    <t>D1A0C6</t>
+  </si>
+  <si>
+    <t>11A947</t>
+  </si>
+  <si>
+    <t>11A0C8</t>
+  </si>
+  <si>
+    <t>D1A0C8</t>
+  </si>
+  <si>
+    <t>11A958</t>
+  </si>
+  <si>
+    <t>11A0CA</t>
+  </si>
+  <si>
+    <t>D1A0CA</t>
+  </si>
+  <si>
+    <t>11A979</t>
+  </si>
+  <si>
+    <t>11A0CC</t>
+  </si>
+  <si>
+    <t>D1A0CC</t>
+  </si>
+  <si>
+    <t>11A99A</t>
+  </si>
+  <si>
+    <t>11A0CE</t>
+  </si>
+  <si>
+    <t>D1A0CE</t>
+  </si>
+  <si>
+    <t>11A9BB</t>
+  </si>
+  <si>
+    <t>11A0D0</t>
+  </si>
+  <si>
+    <t>D1A0D0</t>
+  </si>
+  <si>
+    <t>11A9DC</t>
+  </si>
+  <si>
+    <t>11A0D2</t>
+  </si>
+  <si>
+    <t>D1A0D2</t>
+  </si>
+  <si>
+    <t>11A9FD</t>
+  </si>
+  <si>
+    <t>11A0D4</t>
+  </si>
+  <si>
+    <t>D1A0D4</t>
+  </si>
+  <si>
+    <t>11AA1E</t>
+  </si>
+  <si>
+    <t>11A0D6</t>
+  </si>
+  <si>
+    <t>D1A0D6</t>
+  </si>
+  <si>
+    <t>11AA3F</t>
+  </si>
+  <si>
+    <t>11A0D8</t>
+  </si>
+  <si>
+    <t>D1A0D8</t>
+  </si>
+  <si>
+    <t>11AA60</t>
+  </si>
+  <si>
+    <t>11A0DA</t>
+  </si>
+  <si>
+    <t>D1A0DA</t>
+  </si>
+  <si>
+    <t>11AA81</t>
+  </si>
+  <si>
+    <t>11A0DC</t>
+  </si>
+  <si>
+    <t>D1A0DC</t>
+  </si>
+  <si>
+    <t>11AAA2</t>
+  </si>
+  <si>
+    <t>11A0DE</t>
+  </si>
+  <si>
+    <t>D1A0DE</t>
+  </si>
+  <si>
+    <t>11ABDE</t>
+  </si>
+  <si>
+    <t>11A0E0</t>
+  </si>
+  <si>
+    <t>D1A0E0</t>
+  </si>
+  <si>
+    <t>11ACC8</t>
+  </si>
+  <si>
+    <t>11A0E2</t>
+  </si>
+  <si>
+    <t>D1A0E2</t>
+  </si>
+  <si>
+    <t>11ADF0</t>
+  </si>
+  <si>
+    <t>11A0E4</t>
+  </si>
+  <si>
+    <t>D1A0E4</t>
+  </si>
+  <si>
+    <t>11AE06</t>
+  </si>
+  <si>
+    <t>11A0E6</t>
+  </si>
+  <si>
+    <t>D1A0E6</t>
+  </si>
+  <si>
+    <t>11AE1C</t>
+  </si>
+  <si>
+    <t>11A0E8</t>
+  </si>
+  <si>
+    <t>D1A0E8</t>
+  </si>
+  <si>
+    <t>11AE37</t>
+  </si>
+  <si>
+    <t>11A0EA</t>
+  </si>
+  <si>
+    <t>D1A0EA</t>
+  </si>
+  <si>
+    <t>11AFC9</t>
+  </si>
+  <si>
+    <t>11A0EC</t>
+  </si>
+  <si>
+    <t>D1A0EC</t>
+  </si>
+  <si>
+    <t>11B0E9</t>
+  </si>
+  <si>
+    <t>11A0EE</t>
+  </si>
+  <si>
+    <t>D1A0EE</t>
+  </si>
+  <si>
+    <t>11B0FF</t>
+  </si>
+  <si>
+    <t>11A0F0</t>
+  </si>
+  <si>
+    <t>D1A0F0</t>
+  </si>
+  <si>
+    <t>11B115</t>
+  </si>
+  <si>
+    <t>11A0F2</t>
+  </si>
+  <si>
+    <t>D1A0F2</t>
+  </si>
+  <si>
+    <t>11B12A</t>
+  </si>
+  <si>
+    <t>11A0F4</t>
+  </si>
+  <si>
+    <t>D1A0F4</t>
+  </si>
+  <si>
+    <t>11B14D</t>
+  </si>
+  <si>
+    <t>11A0F6</t>
+  </si>
+  <si>
+    <t>D1A0F6</t>
+  </si>
+  <si>
+    <t>11B170</t>
+  </si>
+  <si>
+    <t>11A0F8</t>
+  </si>
+  <si>
+    <t>D1A0F8</t>
+  </si>
+  <si>
+    <t>11B193</t>
+  </si>
+  <si>
+    <t>11A0FA</t>
+  </si>
+  <si>
+    <t>D1A0FA</t>
+  </si>
+  <si>
+    <t>11B1B6</t>
+  </si>
+  <si>
+    <t>11A0FC</t>
+  </si>
+  <si>
+    <t>D1A0FC</t>
+  </si>
+  <si>
+    <t>11B1D9</t>
+  </si>
+  <si>
+    <t>11A0FE</t>
+  </si>
+  <si>
+    <t>D1A0FE</t>
+  </si>
+  <si>
+    <t>11B1EE</t>
+  </si>
+  <si>
+    <t>11A100</t>
+  </si>
+  <si>
+    <t>D1A100</t>
+  </si>
+  <si>
+    <t>11B1FF</t>
+  </si>
+  <si>
+    <t>11A102</t>
+  </si>
+  <si>
+    <t>D1A102</t>
+  </si>
+  <si>
+    <t>11B214</t>
+  </si>
+  <si>
+    <t>11A104</t>
+  </si>
+  <si>
+    <t>D1A104</t>
+  </si>
+  <si>
+    <t>11B22E</t>
+  </si>
+  <si>
+    <t>11A106</t>
+  </si>
+  <si>
+    <t>D1A106</t>
+  </si>
+  <si>
+    <t>11B247</t>
+  </si>
+  <si>
+    <t>11A108</t>
+  </si>
+  <si>
+    <t>D1A108</t>
+  </si>
+  <si>
+    <t>11B367</t>
+  </si>
+  <si>
+    <t>11A10A</t>
+  </si>
+  <si>
+    <t>D1A10A</t>
+  </si>
+  <si>
+    <t>11B484</t>
+  </si>
+  <si>
+    <t>11A10C</t>
+  </si>
+  <si>
+    <t>D1A10C</t>
+  </si>
+  <si>
+    <t>11B499</t>
+  </si>
+  <si>
+    <t>11A10E</t>
+  </si>
+  <si>
+    <t>D1A10E</t>
+  </si>
+  <si>
+    <t>11B64C</t>
+  </si>
+  <si>
+    <t>11A110</t>
+  </si>
+  <si>
+    <t>D1A110</t>
+  </si>
+  <si>
+    <t>11B70E</t>
+  </si>
+  <si>
+    <t>11A112</t>
+  </si>
+  <si>
+    <t>D1A112</t>
+  </si>
+  <si>
+    <t>11B72F</t>
+  </si>
+  <si>
+    <t>11A114</t>
+  </si>
+  <si>
+    <t>D1A114</t>
+  </si>
+  <si>
+    <t>11B750</t>
+  </si>
+  <si>
+    <t>11A116</t>
+  </si>
+  <si>
+    <t>D1A116</t>
+  </si>
+  <si>
+    <t>11B771</t>
+  </si>
+  <si>
+    <t>11A118</t>
+  </si>
+  <si>
+    <t>D1A118</t>
+  </si>
+  <si>
+    <t>11B792</t>
+  </si>
+  <si>
+    <t>11A11A</t>
+  </si>
+  <si>
+    <t>D1A11A</t>
+  </si>
+  <si>
+    <t>11B7B3</t>
+  </si>
+  <si>
+    <t>11A11C</t>
+  </si>
+  <si>
+    <t>D1A11C</t>
+  </si>
+  <si>
+    <t>11B7D4</t>
+  </si>
+  <si>
+    <t>11A11E</t>
+  </si>
+  <si>
+    <t>D1A11E</t>
+  </si>
+  <si>
+    <t>11B7F5</t>
+  </si>
+  <si>
+    <t>11A120</t>
+  </si>
+  <si>
+    <t>D1A120</t>
+  </si>
+  <si>
+    <t>11B80E</t>
+  </si>
+  <si>
+    <t>11A122</t>
+  </si>
+  <si>
+    <t>D1A122</t>
+  </si>
+  <si>
+    <t>11B8DC</t>
+  </si>
+  <si>
+    <t>11A124</t>
+  </si>
+  <si>
+    <t>D1A124</t>
+  </si>
+  <si>
+    <t>11B96A</t>
+  </si>
+  <si>
+    <t>11A126</t>
+  </si>
+  <si>
+    <t>D1A126</t>
+  </si>
+  <si>
+    <t>11BAAA</t>
+  </si>
+  <si>
+    <t>11A128</t>
+  </si>
+  <si>
+    <t>D1A128</t>
+  </si>
+  <si>
+    <t>11BBF7</t>
+  </si>
+  <si>
+    <t>11A12A</t>
+  </si>
+  <si>
+    <t>D1A12A</t>
+  </si>
+  <si>
+    <t>11BCF5</t>
+  </si>
+  <si>
+    <t>11A12C</t>
+  </si>
+  <si>
+    <t>D1A12C</t>
+  </si>
+  <si>
+    <t>11BDFC</t>
+  </si>
+  <si>
+    <t>11A12E</t>
+  </si>
+  <si>
+    <t>D1A12E</t>
+  </si>
+  <si>
+    <t>11BED5</t>
+  </si>
+  <si>
+    <t>11A130</t>
+  </si>
+  <si>
+    <t>D1A130</t>
+  </si>
+  <si>
+    <t>11BFC9</t>
+  </si>
+  <si>
+    <t>11A132</t>
+  </si>
+  <si>
+    <t>D1A132</t>
+  </si>
+  <si>
+    <t>11C0F4</t>
+  </si>
+  <si>
+    <t>11A134</t>
+  </si>
+  <si>
+    <t>D1A134</t>
+  </si>
+  <si>
+    <t>11C22D</t>
+  </si>
+  <si>
+    <t>11A136</t>
+  </si>
+  <si>
+    <t>D1A136</t>
+  </si>
+  <si>
+    <t>11C300</t>
+  </si>
+  <si>
+    <t>11A138</t>
+  </si>
+  <si>
+    <t>D1A138</t>
+  </si>
+  <si>
+    <t>11C3E5</t>
+  </si>
+  <si>
+    <t>11A13A</t>
+  </si>
+  <si>
+    <t>D1A13A</t>
+  </si>
+  <si>
+    <t>11C53A</t>
+  </si>
+  <si>
+    <t>11A13C</t>
+  </si>
+  <si>
+    <t>D1A13C</t>
+  </si>
+  <si>
+    <t>11C662</t>
+  </si>
+  <si>
+    <t>11A13E</t>
+  </si>
+  <si>
+    <t>D1A13E</t>
+  </si>
+  <si>
+    <t>11C864</t>
+  </si>
+  <si>
+    <t>11A140</t>
+  </si>
+  <si>
+    <t>D1A140</t>
+  </si>
+  <si>
+    <t>11C996</t>
+  </si>
+  <si>
+    <t>11A142</t>
+  </si>
+  <si>
+    <t>D1A142</t>
+  </si>
+  <si>
+    <t>11CA8F</t>
+  </si>
+  <si>
+    <t>11A144</t>
+  </si>
+  <si>
+    <t>D1A144</t>
+  </si>
+  <si>
+    <t>11CC82</t>
+  </si>
+  <si>
+    <t>11A146</t>
+  </si>
+  <si>
+    <t>D1A146</t>
+  </si>
+  <si>
+    <t>11CD44</t>
+  </si>
+  <si>
+    <t>11A148</t>
+  </si>
+  <si>
+    <t>D1A148</t>
+  </si>
+  <si>
+    <t>11CF88</t>
+  </si>
+  <si>
+    <t>11A14A</t>
+  </si>
+  <si>
+    <t>D1A14A</t>
+  </si>
+  <si>
+    <t>11D0C6</t>
+  </si>
+  <si>
+    <t>11A14C</t>
+  </si>
+  <si>
+    <t>D1A14C</t>
+  </si>
+  <si>
+    <t>11D0DB</t>
+  </si>
+  <si>
+    <t>11A14E</t>
+  </si>
+  <si>
+    <t>D1A14E</t>
+  </si>
+  <si>
+    <t>11D0F0</t>
+  </si>
+  <si>
+    <t>11A150</t>
+  </si>
+  <si>
+    <t>D1A150</t>
+  </si>
+  <si>
+    <t>11D105</t>
+  </si>
+  <si>
+    <t>11A152</t>
+  </si>
+  <si>
+    <t>D1A152</t>
+  </si>
+  <si>
+    <t>11D11A</t>
+  </si>
+  <si>
+    <t>11A154</t>
+  </si>
+  <si>
+    <t>D1A154</t>
+  </si>
+  <si>
+    <t>11D12F</t>
+  </si>
+  <si>
+    <t>11A156</t>
+  </si>
+  <si>
+    <t>D1A156</t>
+  </si>
+  <si>
+    <t>11D144</t>
+  </si>
+  <si>
+    <t>11A158</t>
+  </si>
+  <si>
+    <t>D1A158</t>
+  </si>
+  <si>
+    <t>11D2CC</t>
+  </si>
+  <si>
+    <t>11A15A</t>
+  </si>
+  <si>
+    <t>D1A15A</t>
+  </si>
+  <si>
+    <t>11D38E</t>
+  </si>
+  <si>
+    <t>11A15C</t>
+  </si>
+  <si>
+    <t>D1A15C</t>
+  </si>
+  <si>
+    <t>11D39A</t>
+  </si>
+  <si>
+    <t>11A15E</t>
+  </si>
+  <si>
+    <t>D1A15E</t>
+  </si>
+  <si>
+    <t>11D3A6</t>
+  </si>
+  <si>
+    <t>11A160</t>
+  </si>
+  <si>
+    <t>D1A160</t>
+  </si>
+  <si>
+    <t>11D3B2</t>
+  </si>
+  <si>
+    <t>11A162</t>
+  </si>
+  <si>
+    <t>D1A162</t>
+  </si>
+  <si>
+    <t>11D3BE</t>
+  </si>
+  <si>
+    <t>11A164</t>
+  </si>
+  <si>
+    <t>D1A164</t>
+  </si>
+  <si>
+    <t>11D3CA</t>
+  </si>
+  <si>
+    <t>11A166</t>
+  </si>
+  <si>
+    <t>D1A166</t>
+  </si>
+  <si>
+    <t>11D3D6</t>
+  </si>
+  <si>
+    <t>11A168</t>
+  </si>
+  <si>
+    <t>D1A168</t>
+  </si>
+  <si>
+    <t>11D3E2</t>
+  </si>
+  <si>
+    <t>11A16A</t>
+  </si>
+  <si>
+    <t>D1A16A</t>
+  </si>
+  <si>
+    <t>11D3EE</t>
+  </si>
+  <si>
+    <t>11A16C</t>
+  </si>
+  <si>
+    <t>D1A16C</t>
+  </si>
+  <si>
+    <t>11D3FA</t>
+  </si>
+  <si>
+    <t>11A16E</t>
+  </si>
+  <si>
+    <t>D1A16E</t>
+  </si>
+  <si>
+    <t>11D406</t>
+  </si>
+  <si>
+    <t>11A170</t>
+  </si>
+  <si>
+    <t>D1A170</t>
+  </si>
+  <si>
+    <t>11D412</t>
+  </si>
+  <si>
+    <t>11A172</t>
+  </si>
+  <si>
+    <t>D1A172</t>
+  </si>
+  <si>
+    <t>11D41E</t>
+  </si>
+  <si>
+    <t>11A174</t>
+  </si>
+  <si>
+    <t>D1A174</t>
+  </si>
+  <si>
+    <t>11D42A</t>
+  </si>
+  <si>
+    <t>11A176</t>
+  </si>
+  <si>
+    <t>D1A176</t>
+  </si>
+  <si>
+    <t>11D436</t>
+  </si>
+  <si>
+    <t>11A178</t>
+  </si>
+  <si>
+    <t>D1A178</t>
+  </si>
+  <si>
+    <t>11D442</t>
+  </si>
+  <si>
+    <t>11A17A</t>
+  </si>
+  <si>
+    <t>D1A17A</t>
+  </si>
+  <si>
+    <t>11D44E</t>
+  </si>
+  <si>
+    <t>11A17C</t>
+  </si>
+  <si>
+    <t>D1A17C</t>
+  </si>
+  <si>
+    <t>11D45A</t>
+  </si>
+  <si>
+    <t>11A17E</t>
+  </si>
+  <si>
+    <t>D1A17E</t>
+  </si>
+  <si>
+    <t>11D653</t>
+  </si>
+  <si>
+    <t>11A180</t>
+  </si>
+  <si>
+    <t>D1A180</t>
+  </si>
+  <si>
+    <t>11D6EF</t>
+  </si>
+  <si>
+    <t>11A182</t>
+  </si>
+  <si>
+    <t>D1A182</t>
+  </si>
+  <si>
+    <t>11D8F5</t>
+  </si>
+  <si>
+    <t>11A184</t>
+  </si>
+  <si>
+    <t>D1A184</t>
+  </si>
+  <si>
+    <t>11DA62</t>
+  </si>
+  <si>
+    <t>11A186</t>
+  </si>
+  <si>
+    <t>D1A186</t>
+  </si>
+  <si>
+    <t>11DCDB</t>
+  </si>
+  <si>
+    <t>11A188</t>
+  </si>
+  <si>
+    <t>D1A188</t>
+  </si>
+  <si>
+    <t>11DDD9</t>
+  </si>
+  <si>
+    <t>11A18A</t>
+  </si>
+  <si>
+    <t>D1A18A</t>
+  </si>
+  <si>
+    <t>11A18C</t>
+  </si>
+  <si>
+    <t>D1A18C</t>
+  </si>
+  <si>
+    <t>11DFCA</t>
+  </si>
+  <si>
+    <t>11A18E</t>
+  </si>
+  <si>
+    <t>D1A18E</t>
+  </si>
+  <si>
+    <t>11DFD9</t>
+  </si>
+  <si>
+    <t>11A190</t>
+  </si>
+  <si>
+    <t>D1A190</t>
+  </si>
+  <si>
+    <t>11DFE7</t>
+  </si>
+  <si>
+    <t>11A192</t>
+  </si>
+  <si>
+    <t>D1A192</t>
+  </si>
+  <si>
+    <t>11DFF5</t>
+  </si>
+  <si>
+    <t>11A194</t>
+  </si>
+  <si>
+    <t>D1A194</t>
+  </si>
+  <si>
+    <t>11E0EE</t>
+  </si>
+  <si>
+    <t>11A196</t>
+  </si>
+  <si>
+    <t>D1A196</t>
+  </si>
+  <si>
+    <t>11E2B9</t>
+  </si>
+  <si>
+    <t>11A198</t>
+  </si>
+  <si>
+    <t>D1A198</t>
+  </si>
+  <si>
+    <t>11E438</t>
+  </si>
+  <si>
+    <t>11A19A</t>
+  </si>
+  <si>
+    <t>D1A19A</t>
+  </si>
+  <si>
+    <t>11E446</t>
+  </si>
+  <si>
+    <t>11A19C</t>
+  </si>
+  <si>
+    <t>D1A19C</t>
+  </si>
+  <si>
+    <t>11E454</t>
+  </si>
+  <si>
+    <t>11A19E</t>
+  </si>
+  <si>
+    <t>D1A19E</t>
+  </si>
+  <si>
+    <t>11E462</t>
+  </si>
+  <si>
+    <t>11A1A0</t>
+  </si>
+  <si>
+    <t>D1A1A0</t>
+  </si>
+  <si>
+    <t>11E470</t>
+  </si>
+  <si>
+    <t>11A1A2</t>
+  </si>
+  <si>
+    <t>D1A1A2</t>
+  </si>
+  <si>
+    <t>11E47E</t>
+  </si>
+  <si>
+    <t>11A1A4</t>
+  </si>
+  <si>
+    <t>D1A1A4</t>
+  </si>
+  <si>
+    <t>11E48C</t>
+  </si>
+  <si>
+    <t>11A1A6</t>
+  </si>
+  <si>
+    <t>D1A1A6</t>
+  </si>
+  <si>
+    <t>11E49A</t>
+  </si>
+  <si>
+    <t>11A1A8</t>
+  </si>
+  <si>
+    <t>D1A1A8</t>
+  </si>
+  <si>
+    <t>11E4A8</t>
+  </si>
+  <si>
+    <t>11A1AA</t>
+  </si>
+  <si>
+    <t>D1A1AA</t>
+  </si>
+  <si>
+    <t>11E4B6</t>
+  </si>
+  <si>
+    <t>11A1AC</t>
+  </si>
+  <si>
+    <t>D1A1AC</t>
+  </si>
+  <si>
+    <t>11E4C4</t>
+  </si>
+  <si>
+    <t>11A1AE</t>
+  </si>
+  <si>
+    <t>D1A1AE</t>
+  </si>
+  <si>
+    <t>11E4D2</t>
+  </si>
+  <si>
+    <t>11A1B0</t>
+  </si>
+  <si>
+    <t>D1A1B0</t>
+  </si>
+  <si>
+    <t>11E4E0</t>
+  </si>
+  <si>
+    <t>11A1B2</t>
+  </si>
+  <si>
+    <t>D1A1B2</t>
+  </si>
+  <si>
+    <t>11E4FD</t>
+  </si>
+  <si>
+    <t>11A1B4</t>
+  </si>
+  <si>
+    <t>D1A1B4</t>
+  </si>
+  <si>
+    <t>11E62F</t>
+  </si>
+  <si>
+    <t>11A1B6</t>
+  </si>
+  <si>
+    <t>D1A1B6</t>
+  </si>
+  <si>
+    <t>11E648</t>
+  </si>
+  <si>
+    <t>11A1B8</t>
+  </si>
+  <si>
+    <t>D1A1B8</t>
+  </si>
+  <si>
+    <t>11E676</t>
+  </si>
+  <si>
+    <t>11A1BA</t>
+  </si>
+  <si>
+    <t>D1A1BA</t>
+  </si>
+  <si>
+    <t>11E723</t>
+  </si>
+  <si>
+    <t>11A1BC</t>
+  </si>
+  <si>
+    <t>D1A1BC</t>
+  </si>
+  <si>
+    <t>11E8D6</t>
+  </si>
+  <si>
+    <t>11A1BE</t>
+  </si>
+  <si>
+    <t>D1A1BE</t>
+  </si>
+  <si>
+    <t>11E8E2</t>
+  </si>
+  <si>
+    <t>11A1C0</t>
+  </si>
+  <si>
+    <t>D1A1C0</t>
+  </si>
+  <si>
+    <t>11E8EC</t>
+  </si>
+  <si>
+    <t>11A1C2</t>
+  </si>
+  <si>
+    <t>D1A1C2</t>
+  </si>
+  <si>
+    <t>11E8F8</t>
+  </si>
+  <si>
+    <t>11A1C4</t>
+  </si>
+  <si>
+    <t>D1A1C4</t>
+  </si>
+  <si>
+    <t>11E904</t>
+  </si>
+  <si>
+    <t>11A1C6</t>
+  </si>
+  <si>
+    <t>D1A1C6</t>
+  </si>
+  <si>
+    <t>11E910</t>
+  </si>
+  <si>
+    <t>11A1C8</t>
+  </si>
+  <si>
+    <t>D1A1C8</t>
+  </si>
+  <si>
+    <t>11E91C</t>
+  </si>
+  <si>
+    <t>11A1CA</t>
+  </si>
+  <si>
+    <t>D1A1CA</t>
+  </si>
+  <si>
+    <t>11E928</t>
+  </si>
+  <si>
+    <t>11A1CC</t>
+  </si>
+  <si>
+    <t>D1A1CC</t>
+  </si>
+  <si>
+    <t>11E934</t>
+  </si>
+  <si>
+    <t>11A1CE</t>
+  </si>
+  <si>
+    <t>D1A1CE</t>
+  </si>
+  <si>
+    <t>11E940</t>
+  </si>
+  <si>
+    <t>11A1D0</t>
+  </si>
+  <si>
+    <t>D1A1D0</t>
+  </si>
+  <si>
+    <t>11E94E</t>
+  </si>
+  <si>
+    <t>11A1D2</t>
+  </si>
+  <si>
+    <t>D1A1D2</t>
+  </si>
+  <si>
+    <t>11E95A</t>
+  </si>
+  <si>
+    <t>11A1D4</t>
+  </si>
+  <si>
+    <t>D1A1D4</t>
+  </si>
+  <si>
+    <t>11E966</t>
+  </si>
+  <si>
+    <t>11A1D6</t>
+  </si>
+  <si>
+    <t>D1A1D6</t>
+  </si>
+  <si>
+    <t>11EA0B</t>
+  </si>
+  <si>
+    <t>11A1D8</t>
+  </si>
+  <si>
+    <t>D1A1D8</t>
+  </si>
+  <si>
+    <t>11EBE0</t>
+  </si>
+  <si>
+    <t>11A1DA</t>
+  </si>
+  <si>
+    <t>D1A1DA</t>
+  </si>
+  <si>
+    <t>11EC7B</t>
+  </si>
+  <si>
+    <t>11A1DC</t>
+  </si>
+  <si>
+    <t>D1A1DC</t>
+  </si>
+  <si>
+    <t>11ED0F</t>
+  </si>
+  <si>
+    <t>11A1DE</t>
+  </si>
+  <si>
+    <t>D1A1DE</t>
+  </si>
+  <si>
+    <t>11ED5A</t>
+  </si>
+  <si>
+    <t>11A1E0</t>
+  </si>
+  <si>
+    <t>D1A1E0</t>
+  </si>
+  <si>
+    <t>11EDF4</t>
+  </si>
+  <si>
+    <t>11A1E2</t>
+  </si>
+  <si>
+    <t>D1A1E2</t>
+  </si>
+  <si>
+    <t>11EEF3</t>
+  </si>
+  <si>
+    <t>11A1E4</t>
+  </si>
+  <si>
+    <t>D1A1E4</t>
+  </si>
+  <si>
+    <t>11EF97</t>
+  </si>
+  <si>
+    <t>11A1E6</t>
+  </si>
+  <si>
+    <t>D1A1E6</t>
+  </si>
+  <si>
+    <t>11EFA5</t>
+  </si>
+  <si>
+    <t>11A1E8</t>
+  </si>
+  <si>
+    <t>D1A1E8</t>
+  </si>
+  <si>
+    <t>11EFB3</t>
+  </si>
+  <si>
+    <t>11A1EA</t>
+  </si>
+  <si>
+    <t>D1A1EA</t>
+  </si>
+  <si>
+    <t>11EFC1</t>
+  </si>
+  <si>
+    <t>D1A1EC</t>
+  </si>
+  <si>
+    <t>11A1EE</t>
+  </si>
+  <si>
+    <t>D1A1EE</t>
+  </si>
+  <si>
+    <t>D1A1FA</t>
+  </si>
+  <si>
+    <t>D1A208</t>
+  </si>
+  <si>
+    <t>D1A216</t>
+  </si>
+  <si>
+    <t>D1A224</t>
+  </si>
+  <si>
+    <t>D1A232</t>
+  </si>
+  <si>
+    <t>D1A240</t>
+  </si>
+  <si>
+    <t>D1A24E</t>
+  </si>
+  <si>
+    <t>D1A25C</t>
+  </si>
+  <si>
+    <t>D1A26A</t>
+  </si>
+  <si>
+    <t>D1A278</t>
+  </si>
+  <si>
+    <t>D1A286</t>
+  </si>
+  <si>
+    <t>D1A294</t>
+  </si>
+  <si>
+    <t>D1A2A2</t>
+  </si>
+  <si>
+    <t>D1A2B0</t>
+  </si>
+  <si>
+    <t>D1A2BE</t>
+  </si>
+  <si>
+    <t>D1A2CC</t>
+  </si>
+  <si>
+    <t>D1A2DA</t>
+  </si>
+  <si>
+    <t>D1A2E8</t>
+  </si>
+  <si>
+    <t>D1A2F6</t>
+  </si>
+  <si>
+    <t>D1A304</t>
+  </si>
+  <si>
+    <t>D1A315</t>
+  </si>
+  <si>
+    <t>D1A326</t>
+  </si>
+  <si>
+    <t>D1A337</t>
+  </si>
+  <si>
+    <t>D1A348</t>
+  </si>
+  <si>
+    <t>D1A359</t>
+  </si>
+  <si>
+    <t>D1A36A</t>
+  </si>
+  <si>
+    <t>D1A37B</t>
+  </si>
+  <si>
+    <t>D1A38C</t>
+  </si>
+  <si>
+    <t>D1A39D</t>
+  </si>
+  <si>
+    <t>D1A3AE</t>
+  </si>
+  <si>
+    <t>D1A3C4</t>
+  </si>
+  <si>
+    <t>D1A3DA</t>
+  </si>
+  <si>
+    <t>D1A3F0</t>
+  </si>
+  <si>
+    <t>D1A406</t>
+  </si>
+  <si>
+    <t>D1A41C</t>
+  </si>
+  <si>
+    <t>D1A432</t>
+  </si>
+  <si>
+    <t>D1A448</t>
+  </si>
+  <si>
+    <t>D1A45E</t>
+  </si>
+  <si>
+    <t>D1A474</t>
+  </si>
+  <si>
+    <t>D1A48A</t>
+  </si>
+  <si>
+    <t>D1A49D</t>
+  </si>
+  <si>
+    <t>D1A4B0</t>
+  </si>
+  <si>
+    <t>D1A4C3</t>
+  </si>
+  <si>
+    <t>D1A4D6</t>
+  </si>
+  <si>
+    <t>D1A4E9</t>
+  </si>
+  <si>
+    <t>D1A4FC</t>
+  </si>
+  <si>
+    <t>D1A50F</t>
+  </si>
+  <si>
+    <t>D1A522</t>
+  </si>
+  <si>
+    <t>D1A535</t>
+  </si>
+  <si>
+    <t>D1A548</t>
+  </si>
+  <si>
+    <t>D1A559</t>
+  </si>
+  <si>
+    <t>D1A56A</t>
+  </si>
+  <si>
+    <t>D1A57B</t>
+  </si>
+  <si>
+    <t>D1A58C</t>
+  </si>
+  <si>
+    <t>D1A59D</t>
+  </si>
+  <si>
+    <t>D1A5AE</t>
+  </si>
+  <si>
+    <t>D1A5BF</t>
+  </si>
+  <si>
+    <t>D1A5D0</t>
+  </si>
+  <si>
+    <t>D1A5E1</t>
+  </si>
+  <si>
+    <t>D1A5F2</t>
+  </si>
+  <si>
+    <t>D1A616</t>
+  </si>
+  <si>
+    <t>D1A63A</t>
+  </si>
+  <si>
+    <t>D1A65E</t>
+  </si>
+  <si>
+    <t>D1A682</t>
+  </si>
+  <si>
+    <t>D1A6A6</t>
+  </si>
+  <si>
+    <t>D1A6CA</t>
+  </si>
+  <si>
+    <t>D1A6EE</t>
+  </si>
+  <si>
+    <t>D1A712</t>
+  </si>
+  <si>
+    <t>D1A736</t>
+  </si>
+  <si>
+    <t>D1A75A</t>
+  </si>
+  <si>
+    <t>D1A76B</t>
+  </si>
+  <si>
+    <t>D1A77C</t>
+  </si>
+  <si>
+    <t>D1A78D</t>
+  </si>
+  <si>
+    <t>D1A79E</t>
+  </si>
+  <si>
+    <t>D1A7AF</t>
+  </si>
+  <si>
+    <t>D1A7C0</t>
+  </si>
+  <si>
+    <t>D1A7D1</t>
+  </si>
+  <si>
+    <t>D1A7E2</t>
+  </si>
+  <si>
+    <t>D1A7F3</t>
+  </si>
+  <si>
+    <t>D1A804</t>
+  </si>
+  <si>
+    <t>D1A815</t>
+  </si>
+  <si>
+    <t>D1A826</t>
+  </si>
+  <si>
+    <t>D1A837</t>
+  </si>
+  <si>
+    <t>D1A848</t>
+  </si>
+  <si>
+    <t>D1A859</t>
+  </si>
+  <si>
+    <t>D1A86A</t>
+  </si>
+  <si>
+    <t>D1A87B</t>
+  </si>
+  <si>
+    <t>D1A88C</t>
+  </si>
+  <si>
+    <t>D1A89D</t>
+  </si>
+  <si>
+    <t>D1A8AE</t>
+  </si>
+  <si>
+    <t>D1A8BF</t>
+  </si>
+  <si>
+    <t>D1A8D0</t>
+  </si>
+  <si>
+    <t>D1A8E1</t>
+  </si>
+  <si>
+    <t>D1A8F2</t>
+  </si>
+  <si>
+    <t>D1A903</t>
+  </si>
+  <si>
+    <t>D1A914</t>
+  </si>
+  <si>
+    <t>D1A925</t>
+  </si>
+  <si>
+    <t>D1A936</t>
+  </si>
+  <si>
+    <t>D1A947</t>
+  </si>
+  <si>
+    <t>D1A958</t>
+  </si>
+  <si>
+    <t>D1A979</t>
+  </si>
+  <si>
+    <t>D1A99A</t>
+  </si>
+  <si>
+    <t>D1A9BB</t>
+  </si>
+  <si>
+    <t>D1A9DC</t>
+  </si>
+  <si>
+    <t>D1A9FD</t>
+  </si>
+  <si>
+    <t>D1AA1E</t>
+  </si>
+  <si>
+    <t>D1AA3F</t>
+  </si>
+  <si>
+    <t>D1AA60</t>
+  </si>
+  <si>
+    <t>D1AA81</t>
+  </si>
+  <si>
+    <t>D1AAA2</t>
+  </si>
+  <si>
+    <t>D1ABDE</t>
+  </si>
+  <si>
+    <t>D1ACC8</t>
+  </si>
+  <si>
+    <t>D1ADF0</t>
+  </si>
+  <si>
+    <t>D1AE06</t>
+  </si>
+  <si>
+    <t>D1AE1C</t>
+  </si>
+  <si>
+    <t>D1AE37</t>
+  </si>
+  <si>
+    <t>D1AFC9</t>
+  </si>
+  <si>
+    <t>D1B0E9</t>
+  </si>
+  <si>
+    <t>D1B0FF</t>
+  </si>
+  <si>
+    <t>D1B115</t>
+  </si>
+  <si>
+    <t>D1B12A</t>
+  </si>
+  <si>
+    <t>D1B14D</t>
+  </si>
+  <si>
+    <t>D1B170</t>
+  </si>
+  <si>
+    <t>D1B193</t>
+  </si>
+  <si>
+    <t>D1B1B6</t>
+  </si>
+  <si>
+    <t>D1B1D9</t>
+  </si>
+  <si>
+    <t>D1B1EE</t>
+  </si>
+  <si>
+    <t>D1B1FF</t>
+  </si>
+  <si>
+    <t>D1B214</t>
+  </si>
+  <si>
+    <t>D1B22E</t>
+  </si>
+  <si>
+    <t>D1B247</t>
+  </si>
+  <si>
+    <t>D1B367</t>
+  </si>
+  <si>
+    <t>D1B484</t>
+  </si>
+  <si>
+    <t>D1B499</t>
+  </si>
+  <si>
+    <t>D1B64C</t>
+  </si>
+  <si>
+    <t>D1B70E</t>
+  </si>
+  <si>
+    <t>D1B72F</t>
+  </si>
+  <si>
+    <t>D1B750</t>
+  </si>
+  <si>
+    <t>D1B771</t>
+  </si>
+  <si>
+    <t>D1B792</t>
+  </si>
+  <si>
+    <t>D1B7B3</t>
+  </si>
+  <si>
+    <t>D1B7D4</t>
+  </si>
+  <si>
+    <t>D1B7F5</t>
+  </si>
+  <si>
+    <t>D1B80E</t>
+  </si>
+  <si>
+    <t>D1B8DC</t>
+  </si>
+  <si>
+    <t>D1B96A</t>
+  </si>
+  <si>
+    <t>D1BAAA</t>
+  </si>
+  <si>
+    <t>D1BBF7</t>
+  </si>
+  <si>
+    <t>D1BCF5</t>
+  </si>
+  <si>
+    <t>D1BDFC</t>
+  </si>
+  <si>
+    <t>D1BED5</t>
+  </si>
+  <si>
+    <t>D1BFC9</t>
+  </si>
+  <si>
+    <t>D1C0F4</t>
+  </si>
+  <si>
+    <t>D1C22D</t>
+  </si>
+  <si>
+    <t>D1C300</t>
+  </si>
+  <si>
+    <t>D1C3E5</t>
+  </si>
+  <si>
+    <t>D1C53A</t>
+  </si>
+  <si>
+    <t>D1C662</t>
+  </si>
+  <si>
+    <t>D1C864</t>
+  </si>
+  <si>
+    <t>D1C996</t>
+  </si>
+  <si>
+    <t>D1CA8F</t>
+  </si>
+  <si>
+    <t>D1CC82</t>
+  </si>
+  <si>
+    <t>D1CD44</t>
+  </si>
+  <si>
+    <t>D1CF88</t>
+  </si>
+  <si>
+    <t>D1D0C6</t>
+  </si>
+  <si>
+    <t>D1D0DB</t>
+  </si>
+  <si>
+    <t>D1D0F0</t>
+  </si>
+  <si>
+    <t>D1D105</t>
+  </si>
+  <si>
+    <t>D1D11A</t>
+  </si>
+  <si>
+    <t>D1D12F</t>
+  </si>
+  <si>
+    <t>D1D144</t>
+  </si>
+  <si>
+    <t>D1D2CC</t>
+  </si>
+  <si>
+    <t>D1D38E</t>
+  </si>
+  <si>
+    <t>D1D39A</t>
+  </si>
+  <si>
+    <t>D1D3A6</t>
+  </si>
+  <si>
+    <t>D1D3B2</t>
+  </si>
+  <si>
+    <t>D1D3BE</t>
+  </si>
+  <si>
+    <t>D1D3CA</t>
+  </si>
+  <si>
+    <t>D1D3D6</t>
+  </si>
+  <si>
+    <t>D1D3E2</t>
+  </si>
+  <si>
+    <t>D1D3EE</t>
+  </si>
+  <si>
+    <t>D1D3FA</t>
+  </si>
+  <si>
+    <t>D1D406</t>
+  </si>
+  <si>
+    <t>D1D412</t>
+  </si>
+  <si>
+    <t>D1D41E</t>
+  </si>
+  <si>
+    <t>D1D42A</t>
+  </si>
+  <si>
+    <t>D1D436</t>
+  </si>
+  <si>
+    <t>D1D442</t>
+  </si>
+  <si>
+    <t>D1D44E</t>
+  </si>
+  <si>
+    <t>D1D45A</t>
+  </si>
+  <si>
+    <t>D1D653</t>
+  </si>
+  <si>
+    <t>D1D6EF</t>
+  </si>
+  <si>
+    <t>D1D8F5</t>
+  </si>
+  <si>
+    <t>D1DA62</t>
+  </si>
+  <si>
+    <t>D1DCDB</t>
+  </si>
+  <si>
+    <t>D1DDD9</t>
+  </si>
+  <si>
+    <t>D1DECE</t>
+  </si>
+  <si>
+    <t>D1DFCA</t>
+  </si>
+  <si>
+    <t>D1DFD9</t>
+  </si>
+  <si>
+    <t>D1DFE7</t>
+  </si>
+  <si>
+    <t>D1DFF5</t>
+  </si>
+  <si>
+    <t>D1E0EE</t>
+  </si>
+  <si>
+    <t>D1E2B9</t>
+  </si>
+  <si>
+    <t>D1E438</t>
+  </si>
+  <si>
+    <t>D1E446</t>
+  </si>
+  <si>
+    <t>D1E454</t>
+  </si>
+  <si>
+    <t>D1E462</t>
+  </si>
+  <si>
+    <t>D1E470</t>
+  </si>
+  <si>
+    <t>D1E47E</t>
+  </si>
+  <si>
+    <t>D1E48C</t>
+  </si>
+  <si>
+    <t>D1E49A</t>
+  </si>
+  <si>
+    <t>D1E4A8</t>
+  </si>
+  <si>
+    <t>D1E4B6</t>
+  </si>
+  <si>
+    <t>D1E4C4</t>
+  </si>
+  <si>
+    <t>D1E4D2</t>
+  </si>
+  <si>
+    <t>D1E4E0</t>
+  </si>
+  <si>
+    <t>D1E4FD</t>
+  </si>
+  <si>
+    <t>D1E62F</t>
+  </si>
+  <si>
+    <t>D1E648</t>
+  </si>
+  <si>
+    <t>D1E676</t>
+  </si>
+  <si>
+    <t>D1E723</t>
+  </si>
+  <si>
+    <t>D1E8D6</t>
+  </si>
+  <si>
+    <t>D1E8E2</t>
+  </si>
+  <si>
+    <t>D1E8EC</t>
+  </si>
+  <si>
+    <t>D1E8F8</t>
+  </si>
+  <si>
+    <t>D1E904</t>
+  </si>
+  <si>
+    <t>D1E910</t>
+  </si>
+  <si>
+    <t>D1E91C</t>
+  </si>
+  <si>
+    <t>D1E928</t>
+  </si>
+  <si>
+    <t>D1E934</t>
+  </si>
+  <si>
+    <t>D1E940</t>
+  </si>
+  <si>
+    <t>D1E94E</t>
+  </si>
+  <si>
+    <t>D1E95A</t>
+  </si>
+  <si>
+    <t>D1E966</t>
+  </si>
+  <si>
+    <t>D1EA0B</t>
+  </si>
+  <si>
+    <t>D1EBE0</t>
+  </si>
+  <si>
+    <t>D1EC7B</t>
+  </si>
+  <si>
+    <t>D1ED0F</t>
+  </si>
+  <si>
+    <t>D1ED5A</t>
+  </si>
+  <si>
+    <t>D1EDF4</t>
+  </si>
+  <si>
+    <t>D1EEF3</t>
+  </si>
+  <si>
+    <t>D1EF97</t>
+  </si>
+  <si>
+    <t>D1EFA5</t>
+  </si>
+  <si>
+    <t>D1EFB3</t>
+  </si>
+  <si>
+    <t>D1EFC1</t>
+  </si>
+  <si>
+    <t>D10202</t>
+  </si>
+  <si>
+    <t>D10000</t>
+  </si>
+  <si>
+    <t>11DECE</t>
+  </si>
+  <si>
+    <t>110202</t>
+  </si>
+  <si>
+    <t>110000</t>
+  </si>
+  <si>
+    <t>ECA1</t>
+  </si>
+  <si>
+    <t>FAA1</t>
+  </si>
+  <si>
+    <t>08A2</t>
+  </si>
+  <si>
+    <t>16A2</t>
+  </si>
+  <si>
+    <t>24A2</t>
+  </si>
+  <si>
+    <t>32A2</t>
+  </si>
+  <si>
+    <t>40A2</t>
+  </si>
+  <si>
+    <t>4EA2</t>
+  </si>
+  <si>
+    <t>5CA2</t>
+  </si>
+  <si>
+    <t>6AA2</t>
+  </si>
+  <si>
+    <t>78A2</t>
+  </si>
+  <si>
+    <t>86A2</t>
+  </si>
+  <si>
+    <t>94A2</t>
+  </si>
+  <si>
+    <t>A2A2</t>
+  </si>
+  <si>
+    <t>B0A2</t>
+  </si>
+  <si>
+    <t>BEA2</t>
+  </si>
+  <si>
+    <t>CCA2</t>
+  </si>
+  <si>
+    <t>DAA2</t>
+  </si>
+  <si>
+    <t>E8A2</t>
+  </si>
+  <si>
+    <t>F6A2</t>
+  </si>
+  <si>
+    <t>04A3</t>
+  </si>
+  <si>
+    <t>15A3</t>
+  </si>
+  <si>
+    <t>26A3</t>
+  </si>
+  <si>
+    <t>37A3</t>
+  </si>
+  <si>
+    <t>48A3</t>
+  </si>
+  <si>
+    <t>59A3</t>
+  </si>
+  <si>
+    <t>6AA3</t>
+  </si>
+  <si>
+    <t>7BA3</t>
+  </si>
+  <si>
+    <t>8CA3</t>
+  </si>
+  <si>
+    <t>9DA3</t>
+  </si>
+  <si>
+    <t>AEA3</t>
+  </si>
+  <si>
+    <t>C4A3</t>
+  </si>
+  <si>
+    <t>DAA3</t>
+  </si>
+  <si>
+    <t>F0A3</t>
+  </si>
+  <si>
+    <t>06A4</t>
+  </si>
+  <si>
+    <t>1CA4</t>
+  </si>
+  <si>
+    <t>32A4</t>
+  </si>
+  <si>
+    <t>48A4</t>
+  </si>
+  <si>
+    <t>5EA4</t>
+  </si>
+  <si>
+    <t>74A4</t>
+  </si>
+  <si>
+    <t>8AA4</t>
+  </si>
+  <si>
+    <t>9DA4</t>
+  </si>
+  <si>
+    <t>B0A4</t>
+  </si>
+  <si>
+    <t>C3A4</t>
+  </si>
+  <si>
+    <t>D6A4</t>
+  </si>
+  <si>
+    <t>E9A4</t>
+  </si>
+  <si>
+    <t>FCA4</t>
+  </si>
+  <si>
+    <t>0FA5</t>
+  </si>
+  <si>
+    <t>22A5</t>
+  </si>
+  <si>
+    <t>35A5</t>
+  </si>
+  <si>
+    <t>48A5</t>
+  </si>
+  <si>
+    <t>59A5</t>
+  </si>
+  <si>
+    <t>6AA5</t>
+  </si>
+  <si>
+    <t>7BA5</t>
+  </si>
+  <si>
+    <t>8CA5</t>
+  </si>
+  <si>
+    <t>9DA5</t>
+  </si>
+  <si>
+    <t>AEA5</t>
+  </si>
+  <si>
+    <t>BFA5</t>
+  </si>
+  <si>
+    <t>D0A5</t>
+  </si>
+  <si>
+    <t>E1A5</t>
+  </si>
+  <si>
+    <t>F2A5</t>
+  </si>
+  <si>
+    <t>16A6</t>
+  </si>
+  <si>
+    <t>3AA6</t>
+  </si>
+  <si>
+    <t>5EA6</t>
+  </si>
+  <si>
+    <t>82A6</t>
+  </si>
+  <si>
+    <t>A6A6</t>
+  </si>
+  <si>
+    <t>CAA6</t>
+  </si>
+  <si>
+    <t>EEA6</t>
+  </si>
+  <si>
+    <t>12A7</t>
+  </si>
+  <si>
+    <t>36A7</t>
+  </si>
+  <si>
+    <t>5AA7</t>
+  </si>
+  <si>
+    <t>6BA7</t>
+  </si>
+  <si>
+    <t>7CA7</t>
+  </si>
+  <si>
+    <t>8DA7</t>
+  </si>
+  <si>
+    <t>9EA7</t>
+  </si>
+  <si>
+    <t>AFA7</t>
+  </si>
+  <si>
+    <t>C0A7</t>
+  </si>
+  <si>
+    <t>D1A7</t>
+  </si>
+  <si>
+    <t>E2A7</t>
+  </si>
+  <si>
+    <t>F3A7</t>
+  </si>
+  <si>
+    <t>04A8</t>
+  </si>
+  <si>
+    <t>15A8</t>
+  </si>
+  <si>
+    <t>26A8</t>
+  </si>
+  <si>
+    <t>37A8</t>
+  </si>
+  <si>
+    <t>48A8</t>
+  </si>
+  <si>
+    <t>59A8</t>
+  </si>
+  <si>
+    <t>6AA8</t>
+  </si>
+  <si>
+    <t>7BA8</t>
+  </si>
+  <si>
+    <t>8CA8</t>
+  </si>
+  <si>
+    <t>9DA8</t>
+  </si>
+  <si>
+    <t>AEA8</t>
+  </si>
+  <si>
+    <t>BFA8</t>
+  </si>
+  <si>
+    <t>D0A8</t>
+  </si>
+  <si>
+    <t>E1A8</t>
+  </si>
+  <si>
+    <t>F2A8</t>
+  </si>
+  <si>
+    <t>03A9</t>
+  </si>
+  <si>
+    <t>14A9</t>
+  </si>
+  <si>
+    <t>25A9</t>
+  </si>
+  <si>
+    <t>36A9</t>
+  </si>
+  <si>
+    <t>47A9</t>
+  </si>
+  <si>
+    <t>58A9</t>
+  </si>
+  <si>
+    <t>79A9</t>
+  </si>
+  <si>
+    <t>9AA9</t>
+  </si>
+  <si>
+    <t>BBA9</t>
+  </si>
+  <si>
+    <t>DCA9</t>
+  </si>
+  <si>
+    <t>FDA9</t>
+  </si>
+  <si>
+    <t>1EAA</t>
+  </si>
+  <si>
+    <t>3FAA</t>
+  </si>
+  <si>
+    <t>60AA</t>
+  </si>
+  <si>
+    <t>81AA</t>
+  </si>
+  <si>
+    <t>A2AA</t>
+  </si>
+  <si>
+    <t>DEAB</t>
+  </si>
+  <si>
+    <t>C8AC</t>
+  </si>
+  <si>
+    <t>F0AD</t>
+  </si>
+  <si>
+    <t>06AE</t>
+  </si>
+  <si>
+    <t>1CAE</t>
+  </si>
+  <si>
+    <t>37AE</t>
+  </si>
+  <si>
+    <t>C9AF</t>
+  </si>
+  <si>
+    <t>E9B0</t>
+  </si>
+  <si>
+    <t>FFB0</t>
+  </si>
+  <si>
+    <t>15B1</t>
+  </si>
+  <si>
+    <t>2AB1</t>
+  </si>
+  <si>
+    <t>4DB1</t>
+  </si>
+  <si>
+    <t>70B1</t>
+  </si>
+  <si>
+    <t>93B1</t>
+  </si>
+  <si>
+    <t>B6B1</t>
+  </si>
+  <si>
+    <t>D9B1</t>
+  </si>
+  <si>
+    <t>EEB1</t>
+  </si>
+  <si>
+    <t>FFB1</t>
+  </si>
+  <si>
+    <t>14B2</t>
+  </si>
+  <si>
+    <t>2EB2</t>
+  </si>
+  <si>
+    <t>47B2</t>
+  </si>
+  <si>
+    <t>67B3</t>
+  </si>
+  <si>
+    <t>84B4</t>
+  </si>
+  <si>
+    <t>99B4</t>
+  </si>
+  <si>
+    <t>4CB6</t>
+  </si>
+  <si>
+    <t>0EB7</t>
+  </si>
+  <si>
+    <t>2FB7</t>
+  </si>
+  <si>
+    <t>50B7</t>
+  </si>
+  <si>
+    <t>71B7</t>
+  </si>
+  <si>
+    <t>92B7</t>
+  </si>
+  <si>
+    <t>B3B7</t>
+  </si>
+  <si>
+    <t>D4B7</t>
+  </si>
+  <si>
+    <t>F5B7</t>
+  </si>
+  <si>
+    <t>0EB8</t>
+  </si>
+  <si>
+    <t>DCB8</t>
+  </si>
+  <si>
+    <t>6AB9</t>
+  </si>
+  <si>
+    <t>AABA</t>
+  </si>
+  <si>
+    <t>F7BB</t>
+  </si>
+  <si>
+    <t>F5BC</t>
+  </si>
+  <si>
+    <t>FCBD</t>
+  </si>
+  <si>
+    <t>D5BE</t>
+  </si>
+  <si>
+    <t>C9BF</t>
+  </si>
+  <si>
+    <t>F4C0</t>
+  </si>
+  <si>
+    <t>2DC2</t>
+  </si>
+  <si>
+    <t>00C3</t>
+  </si>
+  <si>
+    <t>E5C3</t>
+  </si>
+  <si>
+    <t>3AC5</t>
+  </si>
+  <si>
+    <t>62C6</t>
+  </si>
+  <si>
+    <t>64C8</t>
+  </si>
+  <si>
+    <t>96C9</t>
+  </si>
+  <si>
+    <t>8FCA</t>
+  </si>
+  <si>
+    <t>82CC</t>
+  </si>
+  <si>
+    <t>44CD</t>
+  </si>
+  <si>
+    <t>88CF</t>
+  </si>
+  <si>
+    <t>C6D0</t>
+  </si>
+  <si>
+    <t>DBD0</t>
+  </si>
+  <si>
+    <t>F0D0</t>
+  </si>
+  <si>
+    <t>05D1</t>
+  </si>
+  <si>
+    <t>1AD1</t>
+  </si>
+  <si>
+    <t>2FD1</t>
+  </si>
+  <si>
+    <t>44D1</t>
+  </si>
+  <si>
+    <t>CCD2</t>
+  </si>
+  <si>
+    <t>8ED3</t>
+  </si>
+  <si>
+    <t>9AD3</t>
+  </si>
+  <si>
+    <t>A6D3</t>
+  </si>
+  <si>
+    <t>B2D3</t>
+  </si>
+  <si>
+    <t>BED3</t>
+  </si>
+  <si>
+    <t>CAD3</t>
+  </si>
+  <si>
+    <t>D6D3</t>
+  </si>
+  <si>
+    <t>E2D3</t>
+  </si>
+  <si>
+    <t>EED3</t>
+  </si>
+  <si>
+    <t>FAD3</t>
+  </si>
+  <si>
+    <t>06D4</t>
+  </si>
+  <si>
+    <t>12D4</t>
+  </si>
+  <si>
+    <t>1ED4</t>
+  </si>
+  <si>
+    <t>2AD4</t>
+  </si>
+  <si>
+    <t>36D4</t>
+  </si>
+  <si>
+    <t>42D4</t>
+  </si>
+  <si>
+    <t>4ED4</t>
+  </si>
+  <si>
+    <t>5AD4</t>
+  </si>
+  <si>
+    <t>53D6</t>
+  </si>
+  <si>
+    <t>EFD6</t>
+  </si>
+  <si>
+    <t>F5D8</t>
+  </si>
+  <si>
+    <t>62DA</t>
+  </si>
+  <si>
+    <t>DBDC</t>
+  </si>
+  <si>
+    <t>D9DD</t>
+  </si>
+  <si>
+    <t>CEDE</t>
+  </si>
+  <si>
+    <t>CADF</t>
+  </si>
+  <si>
+    <t>D9DF</t>
+  </si>
+  <si>
+    <t>E7DF</t>
+  </si>
+  <si>
+    <t>F5DF</t>
+  </si>
+  <si>
+    <t>EEE0</t>
+  </si>
+  <si>
+    <t>B9E2</t>
+  </si>
+  <si>
+    <t>38E4</t>
+  </si>
+  <si>
+    <t>46E4</t>
+  </si>
+  <si>
+    <t>54E4</t>
+  </si>
+  <si>
+    <t>62E4</t>
+  </si>
+  <si>
+    <t>70E4</t>
+  </si>
+  <si>
+    <t>7EE4</t>
+  </si>
+  <si>
+    <t>8CE4</t>
+  </si>
+  <si>
+    <t>9AE4</t>
+  </si>
+  <si>
+    <t>A8E4</t>
+  </si>
+  <si>
+    <t>B6E4</t>
+  </si>
+  <si>
+    <t>C4E4</t>
+  </si>
+  <si>
+    <t>D2E4</t>
+  </si>
+  <si>
+    <t>E0E4</t>
+  </si>
+  <si>
+    <t>FDE4</t>
+  </si>
+  <si>
+    <t>2FE6</t>
+  </si>
+  <si>
+    <t>48E6</t>
+  </si>
+  <si>
+    <t>76E6</t>
+  </si>
+  <si>
+    <t>23E7</t>
+  </si>
+  <si>
+    <t>D6E8</t>
+  </si>
+  <si>
+    <t>E2E8</t>
+  </si>
+  <si>
+    <t>ECE8</t>
+  </si>
+  <si>
+    <t>F8E8</t>
+  </si>
+  <si>
+    <t>04E9</t>
+  </si>
+  <si>
+    <t>10E9</t>
+  </si>
+  <si>
+    <t>1CE9</t>
+  </si>
+  <si>
+    <t>28E9</t>
+  </si>
+  <si>
+    <t>34E9</t>
+  </si>
+  <si>
+    <t>40E9</t>
+  </si>
+  <si>
+    <t>4EE9</t>
+  </si>
+  <si>
+    <t>5AE9</t>
+  </si>
+  <si>
+    <t>66E9</t>
+  </si>
+  <si>
+    <t>0BEA</t>
+  </si>
+  <si>
+    <t>E0EB</t>
+  </si>
+  <si>
+    <t>7BEC</t>
+  </si>
+  <si>
+    <t>0FED</t>
+  </si>
+  <si>
+    <t>5AED</t>
+  </si>
+  <si>
+    <t>F4ED</t>
+  </si>
+  <si>
+    <t>F3EE</t>
+  </si>
+  <si>
+    <t>97EF</t>
+  </si>
+  <si>
+    <t>A5EF</t>
+  </si>
+  <si>
+    <t>B3EF</t>
+  </si>
+  <si>
+    <t>C1EF</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>comlevel settings, HARD</t>
+  </si>
+  <si>
+    <t>comlevel settings, NORMAL</t>
+  </si>
+  <si>
+    <t>comlevel settings, EASY</t>
+  </si>
+  <si>
+    <t>New Pointer</t>
+  </si>
+  <si>
+    <t>D0EF</t>
+  </si>
+  <si>
+    <t>Original Pointer</t>
   </si>
 </sst>
 </file>
@@ -3949,7 +7709,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3963,6 +7723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4019,6 +7780,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ptr_docs_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4286,8 +8051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
@@ -10562,52 +14327,5271 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="84.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2378</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2125</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>2127</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1131</v>
-      </c>
+      <c r="B7" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>2130</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>2132</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>2133</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>2135</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>2137</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>2139</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>2141</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>2143</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>2145</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>2148</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>2149</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>2155</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>2156</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>2157</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>2158</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>2159</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>2160</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>2161</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>2162</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>2163</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>2164</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>2165</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>2166</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>2167</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>2188</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>2200</v>
+      </c>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>2201</v>
+      </c>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>2202</v>
+      </c>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>2203</v>
+      </c>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>2204</v>
+      </c>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>2205</v>
+      </c>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>2206</v>
+      </c>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>2207</v>
+      </c>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>2208</v>
+      </c>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>2209</v>
+      </c>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>2212</v>
+      </c>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>2213</v>
+      </c>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>2214</v>
+      </c>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>2216</v>
+      </c>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>2217</v>
+      </c>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>2218</v>
+      </c>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>2220</v>
+      </c>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>2222</v>
+      </c>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>2226</v>
+      </c>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>2227</v>
+      </c>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>2228</v>
+      </c>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>2230</v>
+      </c>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>2231</v>
+      </c>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>2232</v>
+      </c>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>2233</v>
+      </c>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>2234</v>
+      </c>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>2236</v>
+      </c>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>2237</v>
+      </c>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>2238</v>
+      </c>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>2239</v>
+      </c>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>2240</v>
+      </c>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>2241</v>
+      </c>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>2245</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>2377</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>2246</v>
+      </c>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>2247</v>
+      </c>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>2249</v>
+      </c>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>2250</v>
+      </c>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>2251</v>
+      </c>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>2252</v>
+      </c>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>2253</v>
+      </c>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>2254</v>
+      </c>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>2255</v>
+      </c>
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>2257</v>
+      </c>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>2258</v>
+      </c>
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>2259</v>
+      </c>
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>2260</v>
+      </c>
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>2261</v>
+      </c>
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>2262</v>
+      </c>
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>2263</v>
+      </c>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>2267</v>
+      </c>
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>2268</v>
+      </c>
+      <c r="G145" s="5"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>2269</v>
+      </c>
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>2271</v>
+      </c>
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>2272</v>
+      </c>
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>2274</v>
+      </c>
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>2275</v>
+      </c>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>2276</v>
+      </c>
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>2278</v>
+      </c>
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>2280</v>
+      </c>
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>2281</v>
+      </c>
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G159" s="5"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G160" s="5"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G161" s="5"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>2285</v>
+      </c>
+      <c r="G162" s="5"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>2286</v>
+      </c>
+      <c r="G163" s="5"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G164" s="5"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>2288</v>
+      </c>
+      <c r="G165" s="5"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>2289</v>
+      </c>
+      <c r="G166" s="5"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>2290</v>
+      </c>
+      <c r="G167" s="5"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>2291</v>
+      </c>
+      <c r="G168" s="5"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>2292</v>
+      </c>
+      <c r="G169" s="5"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>2293</v>
+      </c>
+      <c r="G170" s="5"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>2294</v>
+      </c>
+      <c r="G171" s="5"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>2295</v>
+      </c>
+      <c r="G172" s="5"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>2296</v>
+      </c>
+      <c r="G173" s="5"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>2297</v>
+      </c>
+      <c r="G174" s="5"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>2298</v>
+      </c>
+      <c r="G175" s="5"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>2299</v>
+      </c>
+      <c r="G176" s="5"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>2300</v>
+      </c>
+      <c r="G177" s="5"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>2301</v>
+      </c>
+      <c r="G178" s="5"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>2302</v>
+      </c>
+      <c r="G179" s="5"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G180" s="5"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>2304</v>
+      </c>
+      <c r="G181" s="5"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>2305</v>
+      </c>
+      <c r="G182" s="5"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>2306</v>
+      </c>
+      <c r="G183" s="5"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>2307</v>
+      </c>
+      <c r="G184" s="5"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>2308</v>
+      </c>
+      <c r="G185" s="5"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>2309</v>
+      </c>
+      <c r="G186" s="5"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>2310</v>
+      </c>
+      <c r="G187" s="5"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>2311</v>
+      </c>
+      <c r="G188" s="5"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>2312</v>
+      </c>
+      <c r="G189" s="5"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>2313</v>
+      </c>
+      <c r="G190" s="5"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G191" s="5"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="G192" s="5"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>2316</v>
+      </c>
+      <c r="G193" s="5"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>2317</v>
+      </c>
+      <c r="G194" s="5"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>2318</v>
+      </c>
+      <c r="G195" s="5"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>2319</v>
+      </c>
+      <c r="G196" s="5"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>2320</v>
+      </c>
+      <c r="G197" s="5"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G198" s="5"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>2322</v>
+      </c>
+      <c r="G199" s="5"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>2323</v>
+      </c>
+      <c r="G200" s="5"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>2324</v>
+      </c>
+      <c r="G201" s="5"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>2325</v>
+      </c>
+      <c r="G202" s="5"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="G203" s="5"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>2327</v>
+      </c>
+      <c r="G204" s="5"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>2328</v>
+      </c>
+      <c r="G205" s="5"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>2329</v>
+      </c>
+      <c r="G206" s="5"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>2330</v>
+      </c>
+      <c r="G207" s="5"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>2331</v>
+      </c>
+      <c r="G208" s="5"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>2332</v>
+      </c>
+      <c r="G209" s="5"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>2333</v>
+      </c>
+      <c r="G210" s="5"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>2334</v>
+      </c>
+      <c r="G211" s="5"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>2335</v>
+      </c>
+      <c r="G212" s="5"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>2336</v>
+      </c>
+      <c r="G213" s="5"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>2337</v>
+      </c>
+      <c r="G214" s="5"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G215" s="5"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>2339</v>
+      </c>
+      <c r="G216" s="5"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>2340</v>
+      </c>
+      <c r="G217" s="5"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>2341</v>
+      </c>
+      <c r="G218" s="5"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>2342</v>
+      </c>
+      <c r="G219" s="5"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>2343</v>
+      </c>
+      <c r="G220" s="5"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G221" s="5"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>2345</v>
+      </c>
+      <c r="G222" s="5"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>2346</v>
+      </c>
+      <c r="G223" s="5"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>2347</v>
+      </c>
+      <c r="G224" s="5"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>2348</v>
+      </c>
+      <c r="G225" s="5"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>2349</v>
+      </c>
+      <c r="G226" s="5"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G227" s="5"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="G228" s="5"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>2352</v>
+      </c>
+      <c r="G229" s="5"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>2353</v>
+      </c>
+      <c r="G230" s="5"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G231" s="5"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>2355</v>
+      </c>
+      <c r="G232" s="5"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G233" s="5"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>2357</v>
+      </c>
+      <c r="G234" s="5"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>2358</v>
+      </c>
+      <c r="G235" s="5"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G236" s="5"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G237" s="5"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>2361</v>
+      </c>
+      <c r="G238" s="5"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G239" s="5"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>2112</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G240" s="5"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G241" s="5"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>2365</v>
+      </c>
+      <c r="G242" s="5"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>2115</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="G243" s="5"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G244" s="5"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G245" s="5"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>2369</v>
+      </c>
+      <c r="G246" s="5"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G247" s="5"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>2371</v>
+      </c>
+      <c r="G248" s="5"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G249" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Notes/SBM5_PointerTableDocumentation.xlsx
+++ b/Notes/SBM5_PointerTableDocumentation.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="2379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="2381">
   <si>
     <t>Pointer Offset</t>
   </si>
@@ -7213,6 +7213,12 @@
   </si>
   <si>
     <t>Original Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Match Rules - Screen Data and Menu Heading </t>
+  </si>
+  <si>
+    <t>Character Select - Screen Data and Menu Heading</t>
   </si>
 </sst>
 </file>
@@ -8052,9 +8058,9 @@
   <dimension ref="A1:G292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14329,8 +14335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16848,6 +16854,9 @@
         <v>2242</v>
       </c>
       <c r="G119" s="5"/>
+      <c r="H119" s="5" t="s">
+        <v>2379</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -17049,7 +17058,7 @@
       </c>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -17070,7 +17079,7 @@
       </c>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -17091,7 +17100,7 @@
       </c>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -17112,7 +17121,7 @@
       </c>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -17133,7 +17142,7 @@
       </c>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -17154,7 +17163,7 @@
       </c>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -17175,7 +17184,7 @@
       </c>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -17196,7 +17205,7 @@
       </c>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -17217,7 +17226,7 @@
       </c>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -17237,8 +17246,11 @@
         <v>2260</v>
       </c>
       <c r="G137" s="5"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="5" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -17259,7 +17271,7 @@
       </c>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -17280,7 +17292,7 @@
       </c>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -17301,7 +17313,7 @@
       </c>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -17322,7 +17334,7 @@
       </c>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -17343,7 +17355,7 @@
       </c>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -17364,7 +17376,7 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
